--- a/docs/images/ntrace_message_generation_example_source.xlsx
+++ b/docs/images/ntrace_message_generation_example_source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nxa16392\Documents\riscv\ntrace_docs\doc_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE1F4875-4C2F-4715-8A86-67B0611F1E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{306BDF80-9285-43C4-A470-1D0C419ADC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33015" yWindow="1050" windowWidth="27615" windowHeight="17505" xr2:uid="{086EC86F-6431-4D9B-95E7-688D8015CA7E}"/>
+    <workbookView xWindow="-36450" yWindow="1950" windowWidth="28800" windowHeight="15885" xr2:uid="{086EC86F-6431-4D9B-95E7-688D8015CA7E}"/>
   </bookViews>
   <sheets>
     <sheet name="n-trace_v_test" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="56">
   <si>
     <t>RUN</t>
   </si>
@@ -92,9 +92,6 @@
     <t>EN</t>
   </si>
   <si>
-    <t>ProgramTraceSyn</t>
-  </si>
-  <si>
     <t>Message</t>
   </si>
   <si>
@@ -171,10 +168,6 @@
   </si>
   <si>
     <t>Acronyms</t>
-  </si>
-  <si>
-    <t>After
-P</t>
   </si>
   <si>
     <r>
@@ -290,9 +283,6 @@
   </si>
   <si>
     <t>Optional Message (maybe omitted by encoder)</t>
-  </si>
-  <si>
-    <t>The following cases are created to help illustrate the type of N-trace message generated for different scenarios using the RISC-V N-trace Specification Version 1.0</t>
   </si>
   <si>
     <t>IndirectBranchHistSync OR IndirectBranchSync OR ProgramTraceSync</t>
@@ -344,7 +334,13 @@
     </r>
   </si>
   <si>
-    <t>N-Trace message generation examples v 0.1:</t>
+    <t>ProgramTraceSync</t>
+  </si>
+  <si>
+    <t>The following cases are created to help illustrate the type of N-trace message generated for different scenarios using the RISC-V N-trace Specification Version 1.0. The table below provides descriptions of events which may occur while a hart is running.</t>
+  </si>
+  <si>
+    <t>N-Trace message generation examples v 1.0:</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1017,15 +1013,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -1035,33 +1025,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1078,19 +1047,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1103,9 +1060,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1115,32 +1069,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1155,23 +1091,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1185,9 +1106,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1197,12 +1115,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1226,9 +1138,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1249,6 +1158,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1566,10 +1568,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:X120"/>
+  <dimension ref="B1:AA120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98:F100"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1585,172 +1587,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
+      <c r="D1" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="3:22" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="Q2" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" s="61" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="Q2" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="62"/>
+      <c r="R2" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="100"/>
     </row>
     <row r="3" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D3" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="Q3" s="42" t="s">
+      <c r="D3" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="Q3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="60" t="s">
+      <c r="R3" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="106"/>
+    </row>
+    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="Q4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
-    </row>
-    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="Q4" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="60" t="s">
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="106"/>
+    </row>
+    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="Q5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="45"/>
-    </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="Q5" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="60" t="s">
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="106"/>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="Q6" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="106"/>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="Q7" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="45"/>
-    </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="Q6" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="R6" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="45"/>
-    </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="Q7" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="R7" s="60" t="s">
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="106"/>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Q8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="45"/>
-    </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="Q8" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" s="60" t="s">
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="106"/>
+    </row>
+    <row r="9" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-    </row>
-    <row r="9" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q9" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="R9" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="S9" s="57"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="64"/>
+      <c r="R9" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" s="43"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="46"/>
     </row>
     <row r="10" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="L10" s="4"/>
@@ -1771,7 +1773,7 @@
       <c r="R11" s="4"/>
     </row>
     <row r="12" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="97"/>
+      <c r="D12" s="69"/>
       <c r="E12" s="8"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1782,7 +1784,7 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="97"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="8"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1797,7 +1799,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -1808,7 +1810,7 @@
       <c r="R14" s="4"/>
     </row>
     <row r="15" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="97"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="8"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1819,31 +1821,31 @@
       <c r="R15" s="4"/>
     </row>
     <row r="16" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="40"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="99"/>
-    </row>
-    <row r="17" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="30"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="14"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="71"/>
+    </row>
+    <row r="17" spans="3:27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="26"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1860,10 +1862,10 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="16"/>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C18" s="30"/>
+      <c r="V17" s="15"/>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C18" s="26"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1890,15 +1892,15 @@
       </c>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="16"/>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C19" s="30"/>
-      <c r="D19" s="114" t="s">
+      <c r="V18" s="15"/>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C19" s="26"/>
+      <c r="D19" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="114"/>
-      <c r="F19" s="126"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="97"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1914,13 +1916,13 @@
       <c r="S19" s="5"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="124"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C20" s="30"/>
+      <c r="V19" s="95"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C20" s="26"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="126"/>
+      <c r="F20" s="97"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1936,40 +1938,40 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="124"/>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C21" s="30"/>
-      <c r="D21" s="114" t="s">
+      <c r="V20" s="95"/>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C21" s="26"/>
+      <c r="D21" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101" t="s">
+      <c r="E21" s="101"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="111" t="s">
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="102" t="s">
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="S21" s="102"/>
-      <c r="T21" s="102"/>
-      <c r="U21" s="102"/>
-      <c r="V21" s="125"/>
-    </row>
-    <row r="22" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="30"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="96"/>
+    </row>
+    <row r="22" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="26"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1988,246 +1990,251 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="16"/>
-    </row>
-    <row r="23" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="30"/>
+      <c r="V22" s="15"/>
+    </row>
+    <row r="23" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="26"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="33" t="s">
+      <c r="J23" s="19"/>
+      <c r="K23" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="110"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="34"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="32"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="23"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="14"/>
+      <c r="T23" s="13"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="16"/>
-    </row>
-    <row r="24" spans="3:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C24" s="30"/>
+      <c r="V23" s="15"/>
+    </row>
+    <row r="24" spans="3:27" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C24" s="26"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="52" t="s">
+      <c r="J24" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="72" t="s">
+      <c r="K24" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="114"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="O24" s="37">
+      <c r="O24" s="28">
         <v>5</v>
       </c>
-      <c r="P24" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="16"/>
+      <c r="P24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="15"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="16"/>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C25" s="30"/>
+      <c r="V24" s="15"/>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C25" s="26"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="66" t="s">
+      <c r="J25" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="67" t="s">
+      <c r="K25" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="O25" s="68">
+      <c r="O25" s="48">
         <v>0</v>
       </c>
-      <c r="P25" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q25" s="70"/>
+      <c r="P25" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="50"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="16"/>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C26" s="30"/>
+      <c r="V25" s="15"/>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C26" s="26"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="66" t="s">
+      <c r="J26" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="73" t="s">
+      <c r="K26" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="O26" s="68">
+      <c r="O26" s="48">
         <v>3</v>
       </c>
-      <c r="P26" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q26" s="70"/>
+      <c r="P26" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="50"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="16"/>
-    </row>
-    <row r="27" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="30"/>
+      <c r="V26" s="15"/>
+    </row>
+    <row r="27" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="26"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="53" t="s">
+      <c r="J27" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="K27" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="O27" s="38">
+      <c r="O27" s="29">
         <v>4</v>
       </c>
-      <c r="P27" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q27" s="20"/>
+      <c r="P27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="18"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="16"/>
-    </row>
-    <row r="28" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="30"/>
+      <c r="V27" s="15"/>
+    </row>
+    <row r="28" spans="3:27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="26"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="16"/>
-    </row>
-    <row r="29" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="29"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="118"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="106"/>
-      <c r="S29" s="106"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="20"/>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="I28" s="127"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="127"/>
+      <c r="O28" s="127"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="127"/>
+      <c r="R28" s="127"/>
+      <c r="S28" s="127"/>
+      <c r="T28" s="127"/>
+      <c r="U28" s="127"/>
+      <c r="V28" s="128"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+    </row>
+    <row r="29" spans="3:27" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="25"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="18"/>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D31" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="97"/>
+    <row r="32" spans="3:27" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="69"/>
       <c r="E32" s="8"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
     </row>
     <row r="33" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="40"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="98"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="98"/>
-      <c r="P33" s="98"/>
-      <c r="Q33" s="98"/>
-      <c r="R33" s="98"/>
-      <c r="S33" s="98"/>
-      <c r="T33" s="120"/>
-      <c r="U33" s="120"/>
-      <c r="V33" s="99"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="91"/>
+      <c r="U33" s="91"/>
+      <c r="V33" s="71"/>
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C34" s="30"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -2252,15 +2259,15 @@
       </c>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
-      <c r="V34" s="16"/>
+      <c r="V34" s="15"/>
     </row>
     <row r="35" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C35" s="30"/>
-      <c r="D35" s="100" t="s">
+      <c r="C35" s="26"/>
+      <c r="D35" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="121"/>
-      <c r="F35" s="126"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="97"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2276,13 +2283,13 @@
       <c r="S35" s="5"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
-      <c r="V35" s="16"/>
+      <c r="V35" s="15"/>
     </row>
     <row r="36" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C36" s="30"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="126"/>
+      <c r="F36" s="97"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2298,40 +2305,40 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
-      <c r="V36" s="124"/>
+      <c r="V36" s="95"/>
     </row>
     <row r="37" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C37" s="30"/>
-      <c r="D37" s="100" t="s">
+      <c r="C37" s="26"/>
+      <c r="D37" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="121"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101" t="s">
+      <c r="E37" s="92"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="110"/>
-      <c r="N37" s="111" t="s">
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="110"/>
-      <c r="P37" s="110"/>
-      <c r="Q37" s="102"/>
-      <c r="R37" s="102" t="s">
+      <c r="O37" s="82"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="S37" s="102"/>
-      <c r="T37" s="102"/>
-      <c r="U37" s="102"/>
-      <c r="V37" s="125"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="96"/>
     </row>
     <row r="38" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="30"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -2350,140 +2357,140 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="16"/>
+      <c r="V38" s="15"/>
     </row>
     <row r="39" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="30"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="33" t="s">
+      <c r="J39" s="19"/>
+      <c r="K39" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="110"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="L39" s="34"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O39" s="32"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="23"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="21"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="16"/>
+      <c r="V39" s="15"/>
     </row>
     <row r="40" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C40" s="30"/>
+      <c r="C40" s="26"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="56" t="s">
+      <c r="J40" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="25" t="s">
+      <c r="K40" s="126" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="126"/>
+      <c r="M40" s="126"/>
+      <c r="N40" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="O40" s="39">
+      <c r="O40" s="30">
         <v>0</v>
       </c>
-      <c r="P40" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="112"/>
+      <c r="P40" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="84"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
-      <c r="V40" s="16"/>
+      <c r="V40" s="15"/>
     </row>
     <row r="41" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C41" s="30"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="66" t="s">
+      <c r="J41" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K41" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" s="67"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="73" t="s">
+      <c r="K41" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="L41" s="125"/>
+      <c r="M41" s="125"/>
+      <c r="N41" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="O41" s="68">
+      <c r="O41" s="48">
         <v>3</v>
       </c>
-      <c r="P41" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q41" s="70"/>
+      <c r="P41" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q41" s="50"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
-      <c r="V41" s="16"/>
+      <c r="V41" s="15"/>
     </row>
     <row r="42" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="30"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="53" t="s">
+      <c r="J42" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="17" t="s">
+      <c r="K42" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="120"/>
+      <c r="M42" s="120"/>
+      <c r="N42" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="O42" s="38">
+      <c r="O42" s="29">
         <v>4</v>
       </c>
-      <c r="P42" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q42" s="20"/>
+      <c r="P42" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="18"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="16"/>
+      <c r="V42" s="15"/>
     </row>
     <row r="43" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="30"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="104"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="76"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -2494,29 +2501,29 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
-      <c r="V43" s="16"/>
+      <c r="V43" s="15"/>
     </row>
     <row r="44" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="29"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="123"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="106"/>
-      <c r="M44" s="106"/>
-      <c r="N44" s="106"/>
-      <c r="O44" s="106"/>
-      <c r="P44" s="106"/>
-      <c r="Q44" s="106"/>
-      <c r="R44" s="106"/>
-      <c r="S44" s="106"/>
-      <c r="T44" s="106"/>
-      <c r="U44" s="106"/>
-      <c r="V44" s="20"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="78"/>
+      <c r="S44" s="78"/>
+      <c r="T44" s="78"/>
+      <c r="U44" s="78"/>
+      <c r="V44" s="18"/>
     </row>
     <row r="45" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="J45" s="11"/>
@@ -2531,38 +2538,38 @@
         <v>7</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="97"/>
+      <c r="D48" s="69"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="40"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="98"/>
-      <c r="I49" s="98"/>
-      <c r="J49" s="98"/>
-      <c r="K49" s="98"/>
-      <c r="L49" s="98"/>
-      <c r="M49" s="98"/>
-      <c r="N49" s="98"/>
-      <c r="O49" s="98"/>
-      <c r="P49" s="98"/>
-      <c r="Q49" s="98"/>
-      <c r="R49" s="98"/>
-      <c r="S49" s="98"/>
-      <c r="T49" s="98"/>
-      <c r="U49" s="98"/>
-      <c r="V49" s="99"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="70"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="70"/>
+      <c r="R49" s="70"/>
+      <c r="S49" s="70"/>
+      <c r="T49" s="70"/>
+      <c r="U49" s="70"/>
+      <c r="V49" s="71"/>
     </row>
     <row r="50" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C50" s="30"/>
-      <c r="D50" s="126"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="97"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -2586,15 +2593,15 @@
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
-      <c r="V50" s="16"/>
+      <c r="V50" s="15"/>
     </row>
     <row r="51" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C51" s="30"/>
-      <c r="D51" s="100" t="s">
+      <c r="C51" s="26"/>
+      <c r="D51" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="121"/>
-      <c r="F51" s="126"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="97"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -2610,13 +2617,13 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="16"/>
+      <c r="V51" s="15"/>
     </row>
     <row r="52" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C52" s="30"/>
+      <c r="C52" s="26"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="126"/>
+      <c r="F52" s="97"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -2632,40 +2639,40 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
-      <c r="V52" s="124"/>
+      <c r="V52" s="95"/>
     </row>
     <row r="53" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C53" s="30"/>
-      <c r="D53" s="100" t="s">
+      <c r="C53" s="26"/>
+      <c r="D53" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="121"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="101"/>
-      <c r="H53" s="101" t="s">
+      <c r="E53" s="92"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="I53" s="101"/>
-      <c r="J53" s="101"/>
-      <c r="K53" s="101"/>
-      <c r="L53" s="101"/>
-      <c r="M53" s="110"/>
-      <c r="N53" s="111" t="s">
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="O53" s="110"/>
-      <c r="P53" s="110"/>
-      <c r="Q53" s="102"/>
-      <c r="R53" s="102" t="s">
+      <c r="O53" s="82"/>
+      <c r="P53" s="82"/>
+      <c r="Q53" s="74"/>
+      <c r="R53" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="S53" s="102"/>
-      <c r="T53" s="102"/>
-      <c r="U53" s="102"/>
-      <c r="V53" s="125"/>
+      <c r="S53" s="74"/>
+      <c r="T53" s="74"/>
+      <c r="U53" s="74"/>
+      <c r="V53" s="96"/>
     </row>
     <row r="54" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="30"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2684,179 +2691,179 @@
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
-      <c r="V54" s="16"/>
+      <c r="V54" s="15"/>
     </row>
     <row r="55" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="30"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="33" t="s">
+      <c r="J55" s="19"/>
+      <c r="K55" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="110"/>
+      <c r="M55" s="111"/>
+      <c r="N55" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="L55" s="34"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O55" s="32"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="23"/>
+      <c r="O55" s="113"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="21"/>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
-      <c r="V55" s="16"/>
+      <c r="V55" s="15"/>
     </row>
     <row r="56" spans="3:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C56" s="30"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="52" t="s">
+      <c r="J56" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="72" t="s">
+      <c r="K56" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="L56" s="114"/>
+      <c r="M56" s="114"/>
+      <c r="N56" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="O56" s="37">
+      <c r="O56" s="28">
         <v>5</v>
       </c>
-      <c r="P56" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q56" s="16"/>
+      <c r="P56" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="15"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
-      <c r="V56" s="16"/>
+      <c r="V56" s="15"/>
     </row>
     <row r="57" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C57" s="30"/>
+      <c r="C57" s="26"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="66" t="s">
+      <c r="J57" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K57" s="67" t="s">
+      <c r="K57" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="125"/>
+      <c r="M57" s="125"/>
+      <c r="N57" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="L57" s="67"/>
-      <c r="M57" s="67"/>
-      <c r="N57" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="O57" s="68">
+      <c r="O57" s="48">
         <v>0</v>
       </c>
-      <c r="P57" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q57" s="70"/>
+      <c r="P57" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q57" s="50"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
-      <c r="V57" s="16"/>
+      <c r="V57" s="15"/>
     </row>
     <row r="58" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="30"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="53" t="s">
+      <c r="J58" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="17" t="s">
+      <c r="K58" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" s="120"/>
+      <c r="M58" s="120"/>
+      <c r="N58" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="O58" s="38">
+      <c r="O58" s="29">
         <v>4</v>
       </c>
-      <c r="P58" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q58" s="20"/>
+      <c r="P58" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q58" s="18"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
-      <c r="V58" s="16"/>
+      <c r="V58" s="15"/>
     </row>
     <row r="59" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="30"/>
+      <c r="C59" s="26"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="116"/>
-      <c r="P59" s="14"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="87"/>
+      <c r="P59" s="13"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
-      <c r="V59" s="16"/>
+      <c r="V59" s="15"/>
     </row>
     <row r="60" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="29"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="106"/>
-      <c r="G60" s="106"/>
-      <c r="H60" s="106"/>
-      <c r="I60" s="106"/>
-      <c r="J60" s="117"/>
-      <c r="K60" s="118"/>
-      <c r="L60" s="118"/>
-      <c r="M60" s="118"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="119"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="106"/>
-      <c r="R60" s="106"/>
-      <c r="S60" s="106"/>
-      <c r="T60" s="106"/>
-      <c r="U60" s="106"/>
-      <c r="V60" s="20"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="88"/>
+      <c r="K60" s="89"/>
+      <c r="L60" s="89"/>
+      <c r="M60" s="89"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="90"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="78"/>
+      <c r="R60" s="78"/>
+      <c r="S60" s="78"/>
+      <c r="T60" s="78"/>
+      <c r="U60" s="78"/>
+      <c r="V60" s="18"/>
     </row>
     <row r="62" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D62" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="36" t="s">
+      <c r="E62" s="27" t="s">
         <v>13</v>
       </c>
       <c r="L62" s="4"/>
@@ -2868,8 +2875,8 @@
       <c r="R62" s="4"/>
     </row>
     <row r="63" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="97"/>
-      <c r="E63" s="36"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="27"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
@@ -2879,29 +2886,29 @@
       <c r="R63" s="4"/>
     </row>
     <row r="64" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="40"/>
-      <c r="D64" s="108"/>
-      <c r="E64" s="107"/>
-      <c r="F64" s="98"/>
-      <c r="G64" s="98"/>
-      <c r="H64" s="98"/>
-      <c r="I64" s="98"/>
-      <c r="J64" s="98"/>
-      <c r="K64" s="98"/>
-      <c r="L64" s="98"/>
-      <c r="M64" s="98"/>
-      <c r="N64" s="98"/>
-      <c r="O64" s="98"/>
-      <c r="P64" s="98"/>
-      <c r="Q64" s="98"/>
-      <c r="R64" s="98"/>
-      <c r="S64" s="98"/>
-      <c r="T64" s="98"/>
-      <c r="U64" s="98"/>
-      <c r="V64" s="99"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="70"/>
+      <c r="K64" s="70"/>
+      <c r="L64" s="70"/>
+      <c r="M64" s="70"/>
+      <c r="N64" s="70"/>
+      <c r="O64" s="70"/>
+      <c r="P64" s="70"/>
+      <c r="Q64" s="70"/>
+      <c r="R64" s="70"/>
+      <c r="S64" s="70"/>
+      <c r="T64" s="70"/>
+      <c r="U64" s="70"/>
+      <c r="V64" s="71"/>
     </row>
     <row r="65" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C65" s="30"/>
+      <c r="C65" s="26"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -2930,15 +2937,15 @@
       <c r="U65" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V65" s="16"/>
+      <c r="V65" s="15"/>
     </row>
     <row r="66" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C66" s="30"/>
-      <c r="D66" s="100" t="s">
+      <c r="C66" s="26"/>
+      <c r="D66" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="100"/>
-      <c r="F66" s="126"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="97"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -2954,13 +2961,13 @@
       <c r="S66" s="3"/>
       <c r="T66" s="9"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="16"/>
+      <c r="V66" s="15"/>
     </row>
     <row r="67" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C67" s="30"/>
+      <c r="C67" s="26"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="126"/>
+      <c r="F67" s="97"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -2976,40 +2983,40 @@
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
-      <c r="V67" s="124"/>
+      <c r="V67" s="95"/>
     </row>
     <row r="68" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C68" s="30"/>
-      <c r="D68" s="100" t="s">
+      <c r="C68" s="26"/>
+      <c r="D68" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="100"/>
-      <c r="F68" s="126"/>
-      <c r="G68" s="101"/>
-      <c r="H68" s="101" t="s">
+      <c r="E68" s="72"/>
+      <c r="F68" s="97"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="I68" s="101"/>
-      <c r="J68" s="101"/>
-      <c r="K68" s="101"/>
-      <c r="L68" s="101"/>
-      <c r="M68" s="110"/>
-      <c r="N68" s="111" t="s">
+      <c r="I68" s="73"/>
+      <c r="J68" s="73"/>
+      <c r="K68" s="73"/>
+      <c r="L68" s="73"/>
+      <c r="M68" s="82"/>
+      <c r="N68" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="O68" s="110"/>
-      <c r="P68" s="110"/>
-      <c r="Q68" s="102"/>
-      <c r="R68" s="102" t="s">
+      <c r="O68" s="82"/>
+      <c r="P68" s="82"/>
+      <c r="Q68" s="74"/>
+      <c r="R68" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="S68" s="102"/>
-      <c r="T68" s="102"/>
-      <c r="U68" s="102"/>
-      <c r="V68" s="125"/>
+      <c r="S68" s="74"/>
+      <c r="T68" s="74"/>
+      <c r="U68" s="74"/>
+      <c r="V68" s="96"/>
     </row>
     <row r="69" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="30"/>
+      <c r="C69" s="26"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -3028,196 +3035,196 @@
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
-      <c r="V69" s="16"/>
+      <c r="V69" s="15"/>
     </row>
     <row r="70" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="30"/>
+      <c r="C70" s="26"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="33" t="s">
+      <c r="J70" s="19"/>
+      <c r="K70" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" s="110"/>
+      <c r="M70" s="111"/>
+      <c r="N70" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="L70" s="34"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O70" s="32"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="23"/>
+      <c r="O70" s="113"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="21"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
-      <c r="V70" s="16"/>
+      <c r="V70" s="15"/>
     </row>
     <row r="71" spans="3:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C71" s="30"/>
+      <c r="C71" s="26"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="52" t="s">
+      <c r="J71" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K71" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="72" t="s">
+      <c r="K71" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="L71" s="114"/>
+      <c r="M71" s="114"/>
+      <c r="N71" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="O71" s="37">
+      <c r="O71" s="28">
         <v>5</v>
       </c>
-      <c r="P71" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q71" s="16"/>
+      <c r="P71" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="15"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
-      <c r="V71" s="16"/>
+      <c r="V71" s="15"/>
     </row>
     <row r="72" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C72" s="30"/>
+      <c r="C72" s="26"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="66" t="s">
+      <c r="J72" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="67" t="s">
+      <c r="K72" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="L72" s="125"/>
+      <c r="M72" s="125"/>
+      <c r="N72" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="L72" s="67"/>
-      <c r="M72" s="67"/>
-      <c r="N72" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="O72" s="68">
+      <c r="O72" s="48">
         <v>0</v>
       </c>
-      <c r="P72" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q72" s="70"/>
+      <c r="P72" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q72" s="50"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
-      <c r="V72" s="16"/>
+      <c r="V72" s="15"/>
     </row>
     <row r="73" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C73" s="30"/>
+      <c r="C73" s="26"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="54" t="s">
+      <c r="J73" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="K73" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="83" t="s">
+      <c r="K73" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="L73" s="114"/>
+      <c r="M73" s="114"/>
+      <c r="N73" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O73" s="39">
+      <c r="O73" s="30">
         <v>3</v>
       </c>
-      <c r="P73" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q73" s="16"/>
+      <c r="P73" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q73" s="15"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
-      <c r="V73" s="16"/>
+      <c r="V73" s="15"/>
     </row>
     <row r="74" spans="3:22" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="30"/>
+      <c r="C74" s="26"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="K74" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="L74" s="78"/>
-      <c r="M74" s="79"/>
-      <c r="N74" s="84" t="s">
+      <c r="J74" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="K74" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="L74" s="116"/>
+      <c r="M74" s="117"/>
+      <c r="N74" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="O74" s="80">
+      <c r="O74" s="57">
         <v>6</v>
       </c>
-      <c r="P74" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q74" s="82"/>
+      <c r="P74" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q74" s="122"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
-      <c r="V74" s="16"/>
+      <c r="V74" s="15"/>
     </row>
     <row r="75" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="30"/>
+      <c r="C75" s="26"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
-      <c r="J75" s="53" t="s">
+      <c r="J75" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K75" s="17" t="s">
+      <c r="K75" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="L75" s="120"/>
+      <c r="M75" s="120"/>
+      <c r="N75" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="O75" s="38">
+      <c r="O75" s="29">
         <v>4</v>
       </c>
-      <c r="P75" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q75" s="20"/>
+      <c r="P75" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q75" s="18"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
-      <c r="V75" s="16"/>
+      <c r="V75" s="15"/>
     </row>
     <row r="76" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="30"/>
+      <c r="C76" s="26"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -3236,67 +3243,67 @@
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
-      <c r="V76" s="16"/>
+      <c r="V76" s="15"/>
     </row>
     <row r="77" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="29"/>
-      <c r="D77" s="106"/>
-      <c r="E77" s="106"/>
-      <c r="F77" s="106"/>
-      <c r="G77" s="106"/>
-      <c r="H77" s="106"/>
-      <c r="I77" s="106"/>
-      <c r="J77" s="106"/>
-      <c r="K77" s="106"/>
-      <c r="L77" s="106"/>
-      <c r="M77" s="106"/>
-      <c r="N77" s="106"/>
-      <c r="O77" s="106"/>
-      <c r="P77" s="106"/>
-      <c r="Q77" s="106"/>
-      <c r="R77" s="106"/>
-      <c r="S77" s="106"/>
-      <c r="T77" s="106"/>
-      <c r="U77" s="106"/>
-      <c r="V77" s="20"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="78"/>
+      <c r="F77" s="78"/>
+      <c r="G77" s="78"/>
+      <c r="H77" s="78"/>
+      <c r="I77" s="78"/>
+      <c r="J77" s="78"/>
+      <c r="K77" s="78"/>
+      <c r="L77" s="78"/>
+      <c r="M77" s="78"/>
+      <c r="N77" s="78"/>
+      <c r="O77" s="78"/>
+      <c r="P77" s="78"/>
+      <c r="Q77" s="78"/>
+      <c r="R77" s="78"/>
+      <c r="S77" s="78"/>
+      <c r="T77" s="78"/>
+      <c r="U77" s="78"/>
+      <c r="V77" s="18"/>
     </row>
     <row r="79" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D79" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="97"/>
+      <c r="D80" s="69"/>
       <c r="E80" s="8"/>
     </row>
     <row r="81" spans="3:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="40"/>
-      <c r="D81" s="108"/>
-      <c r="E81" s="109"/>
-      <c r="F81" s="98"/>
-      <c r="G81" s="98"/>
-      <c r="H81" s="98"/>
-      <c r="I81" s="98"/>
-      <c r="J81" s="98"/>
-      <c r="K81" s="98"/>
-      <c r="L81" s="98"/>
-      <c r="M81" s="98"/>
-      <c r="N81" s="98"/>
-      <c r="O81" s="98"/>
-      <c r="P81" s="98"/>
-      <c r="Q81" s="98"/>
-      <c r="R81" s="98"/>
-      <c r="S81" s="98"/>
-      <c r="T81" s="98"/>
-      <c r="U81" s="98"/>
-      <c r="V81" s="99"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="81"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="70"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="70"/>
+      <c r="J81" s="70"/>
+      <c r="K81" s="70"/>
+      <c r="L81" s="70"/>
+      <c r="M81" s="70"/>
+      <c r="N81" s="70"/>
+      <c r="O81" s="70"/>
+      <c r="P81" s="70"/>
+      <c r="Q81" s="70"/>
+      <c r="R81" s="70"/>
+      <c r="S81" s="70"/>
+      <c r="T81" s="70"/>
+      <c r="U81" s="70"/>
+      <c r="V81" s="71"/>
       <c r="W81" s="4"/>
     </row>
     <row r="82" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C82" s="30"/>
+      <c r="C82" s="26"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -3319,16 +3326,16 @@
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
-      <c r="V82" s="16"/>
+      <c r="V82" s="15"/>
       <c r="W82" s="4"/>
     </row>
     <row r="83" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C83" s="30"/>
-      <c r="D83" s="100" t="s">
+      <c r="C83" s="26"/>
+      <c r="D83" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E83" s="100"/>
-      <c r="F83" s="126"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="97"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -3344,15 +3351,15 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
-      <c r="V83" s="16"/>
+      <c r="V83" s="15"/>
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
     </row>
     <row r="84" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C84" s="30"/>
+      <c r="C84" s="26"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="126"/>
+      <c r="F84" s="97"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
@@ -3368,44 +3375,44 @@
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
-      <c r="V84" s="124"/>
+      <c r="V84" s="95"/>
       <c r="W84" s="4"/>
       <c r="X84" s="4"/>
     </row>
     <row r="85" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C85" s="30"/>
-      <c r="D85" s="100" t="s">
+      <c r="C85" s="26"/>
+      <c r="D85" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="100"/>
-      <c r="F85" s="126"/>
-      <c r="G85" s="101"/>
-      <c r="H85" s="101" t="s">
+      <c r="E85" s="72"/>
+      <c r="F85" s="97"/>
+      <c r="G85" s="73"/>
+      <c r="H85" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="I85" s="101"/>
-      <c r="J85" s="101"/>
-      <c r="K85" s="110"/>
-      <c r="L85" s="110"/>
-      <c r="M85" s="110"/>
-      <c r="N85" s="111" t="s">
+      <c r="I85" s="73"/>
+      <c r="J85" s="73"/>
+      <c r="K85" s="82"/>
+      <c r="L85" s="82"/>
+      <c r="M85" s="82"/>
+      <c r="N85" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="O85" s="110"/>
-      <c r="P85" s="110"/>
-      <c r="Q85" s="102"/>
-      <c r="R85" s="102" t="s">
+      <c r="O85" s="82"/>
+      <c r="P85" s="82"/>
+      <c r="Q85" s="74"/>
+      <c r="R85" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="S85" s="102"/>
-      <c r="T85" s="102"/>
-      <c r="U85" s="102"/>
-      <c r="V85" s="125"/>
+      <c r="S85" s="74"/>
+      <c r="T85" s="74"/>
+      <c r="U85" s="74"/>
+      <c r="V85" s="96"/>
       <c r="W85" s="4"/>
       <c r="X85" s="4"/>
     </row>
     <row r="86" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="30"/>
+      <c r="C86" s="26"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -3424,108 +3431,108 @@
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
-      <c r="V86" s="16"/>
+      <c r="V86" s="15"/>
       <c r="W86" s="4"/>
       <c r="X86" s="4"/>
     </row>
     <row r="87" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="30"/>
+      <c r="C87" s="26"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="33" t="s">
+      <c r="J87" s="19"/>
+      <c r="K87" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="L87" s="110"/>
+      <c r="M87" s="111"/>
+      <c r="N87" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="L87" s="34"/>
-      <c r="M87" s="35"/>
-      <c r="N87" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O87" s="32"/>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="23"/>
+      <c r="O87" s="113"/>
+      <c r="P87" s="20"/>
+      <c r="Q87" s="21"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
-      <c r="V87" s="16"/>
+      <c r="V87" s="15"/>
       <c r="W87" s="4"/>
       <c r="X87" s="4"/>
     </row>
     <row r="88" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C88" s="30"/>
+      <c r="C88" s="26"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-      <c r="J88" s="87" t="s">
+      <c r="J88" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="K88" s="88" t="s">
+      <c r="K88" s="123" t="s">
+        <v>21</v>
+      </c>
+      <c r="L88" s="123"/>
+      <c r="M88" s="123"/>
+      <c r="N88" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="L88" s="88"/>
-      <c r="M88" s="88"/>
-      <c r="N88" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="O88" s="90">
+      <c r="O88" s="64">
         <v>0</v>
       </c>
-      <c r="P88" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q88" s="92"/>
-      <c r="R88" s="112"/>
+      <c r="P88" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q88" s="66"/>
+      <c r="R88" s="84"/>
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
-      <c r="V88" s="16"/>
+      <c r="V88" s="15"/>
       <c r="W88" s="4"/>
       <c r="X88" s="4"/>
     </row>
     <row r="89" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="30"/>
+      <c r="C89" s="26"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-      <c r="J89" s="53" t="s">
+      <c r="J89" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K89" s="28" t="s">
+      <c r="K89" s="124" t="s">
+        <v>21</v>
+      </c>
+      <c r="L89" s="124"/>
+      <c r="M89" s="124"/>
+      <c r="N89" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="L89" s="28"/>
-      <c r="M89" s="28"/>
-      <c r="N89" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="O89" s="38">
+      <c r="O89" s="29">
         <v>4</v>
       </c>
-      <c r="P89" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q89" s="20"/>
-      <c r="R89" s="112"/>
+      <c r="P89" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q89" s="18"/>
+      <c r="R89" s="84"/>
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
-      <c r="V89" s="16"/>
+      <c r="V89" s="15"/>
       <c r="W89" s="4"/>
       <c r="X89" s="4"/>
     </row>
     <row r="90" spans="3:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="30"/>
+      <c r="C90" s="26"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -3533,7 +3540,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="104"/>
+      <c r="K90" s="76"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
@@ -3544,31 +3551,31 @@
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
-      <c r="V90" s="16"/>
+      <c r="V90" s="15"/>
       <c r="W90" s="4"/>
       <c r="X90" s="4"/>
     </row>
     <row r="91" spans="3:24" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="29"/>
-      <c r="D91" s="106"/>
-      <c r="E91" s="106"/>
-      <c r="F91" s="106"/>
-      <c r="G91" s="106"/>
-      <c r="H91" s="106"/>
-      <c r="I91" s="106"/>
-      <c r="J91" s="106"/>
-      <c r="K91" s="113"/>
-      <c r="L91" s="106"/>
-      <c r="M91" s="106"/>
-      <c r="N91" s="106"/>
-      <c r="O91" s="106"/>
-      <c r="P91" s="106"/>
-      <c r="Q91" s="106"/>
-      <c r="R91" s="106"/>
-      <c r="S91" s="106"/>
-      <c r="T91" s="106"/>
-      <c r="U91" s="106"/>
-      <c r="V91" s="20"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="78"/>
+      <c r="E91" s="78"/>
+      <c r="F91" s="78"/>
+      <c r="G91" s="78"/>
+      <c r="H91" s="78"/>
+      <c r="I91" s="78"/>
+      <c r="J91" s="78"/>
+      <c r="K91" s="85"/>
+      <c r="L91" s="78"/>
+      <c r="M91" s="78"/>
+      <c r="N91" s="78"/>
+      <c r="O91" s="78"/>
+      <c r="P91" s="78"/>
+      <c r="Q91" s="78"/>
+      <c r="R91" s="78"/>
+      <c r="S91" s="78"/>
+      <c r="T91" s="78"/>
+      <c r="U91" s="78"/>
+      <c r="V91" s="18"/>
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
     </row>
@@ -3579,8 +3586,8 @@
       <c r="D93" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E93" s="36" t="s">
-        <v>33</v>
+      <c r="E93" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
@@ -3591,8 +3598,8 @@
       <c r="R93" s="4"/>
     </row>
     <row r="94" spans="3:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D94" s="97"/>
-      <c r="E94" s="36"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="27"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
@@ -3602,8 +3609,8 @@
       <c r="R94" s="4"/>
     </row>
     <row r="95" spans="3:24" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D95" s="97"/>
-      <c r="E95" s="36"/>
+      <c r="D95" s="69"/>
+      <c r="E95" s="27"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
@@ -3613,29 +3620,29 @@
       <c r="R95" s="4"/>
     </row>
     <row r="96" spans="3:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="40"/>
-      <c r="D96" s="108"/>
-      <c r="E96" s="107"/>
-      <c r="F96" s="98"/>
-      <c r="G96" s="98"/>
-      <c r="H96" s="98"/>
-      <c r="I96" s="98"/>
-      <c r="J96" s="98"/>
-      <c r="K96" s="98"/>
-      <c r="L96" s="98"/>
-      <c r="M96" s="98"/>
-      <c r="N96" s="98"/>
-      <c r="O96" s="98"/>
-      <c r="P96" s="98"/>
-      <c r="Q96" s="98"/>
-      <c r="R96" s="98"/>
-      <c r="S96" s="98"/>
-      <c r="T96" s="98"/>
-      <c r="U96" s="98"/>
-      <c r="V96" s="99"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="80"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="70"/>
+      <c r="G96" s="70"/>
+      <c r="H96" s="70"/>
+      <c r="I96" s="70"/>
+      <c r="J96" s="70"/>
+      <c r="K96" s="70"/>
+      <c r="L96" s="70"/>
+      <c r="M96" s="70"/>
+      <c r="N96" s="70"/>
+      <c r="O96" s="70"/>
+      <c r="P96" s="70"/>
+      <c r="Q96" s="70"/>
+      <c r="R96" s="70"/>
+      <c r="S96" s="70"/>
+      <c r="T96" s="70"/>
+      <c r="U96" s="70"/>
+      <c r="V96" s="71"/>
     </row>
     <row r="97" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C97" s="30"/>
+      <c r="C97" s="26"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -3664,22 +3671,22 @@
       <c r="U97" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V97" s="16"/>
+      <c r="V97" s="15"/>
     </row>
     <row r="98" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C98" s="30"/>
-      <c r="D98" s="114" t="s">
+      <c r="C98" s="26"/>
+      <c r="D98" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="114"/>
-      <c r="F98" s="126"/>
+      <c r="E98" s="101"/>
+      <c r="F98" s="97"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="6"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="30"/>
+      <c r="M98" s="26"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
@@ -3688,13 +3695,13 @@
       <c r="S98" s="3"/>
       <c r="T98" s="9"/>
       <c r="U98" s="1"/>
-      <c r="V98" s="16"/>
+      <c r="V98" s="15"/>
     </row>
     <row r="99" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C99" s="30"/>
+      <c r="C99" s="26"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="126"/>
+      <c r="F99" s="97"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -3710,36 +3717,36 @@
       <c r="S99" s="4"/>
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
-      <c r="V99" s="124"/>
+      <c r="V99" s="95"/>
     </row>
     <row r="100" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C100" s="30"/>
-      <c r="D100" s="114" t="s">
+      <c r="C100" s="26"/>
+      <c r="D100" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="114"/>
-      <c r="F100" s="126"/>
-      <c r="G100" s="101"/>
-      <c r="H100" s="101"/>
-      <c r="I100" s="101"/>
-      <c r="J100" s="101"/>
-      <c r="K100" s="101"/>
-      <c r="L100" s="101"/>
-      <c r="M100" s="102" t="s">
+      <c r="E100" s="101"/>
+      <c r="F100" s="97"/>
+      <c r="G100" s="73"/>
+      <c r="H100" s="73"/>
+      <c r="I100" s="73"/>
+      <c r="J100" s="73"/>
+      <c r="K100" s="73"/>
+      <c r="L100" s="73"/>
+      <c r="M100" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="N100" s="103"/>
-      <c r="O100" s="101"/>
-      <c r="P100" s="101"/>
-      <c r="Q100" s="102"/>
-      <c r="R100" s="102"/>
-      <c r="S100" s="102"/>
-      <c r="T100" s="102"/>
-      <c r="U100" s="102"/>
-      <c r="V100" s="125"/>
+      <c r="N100" s="75"/>
+      <c r="O100" s="73"/>
+      <c r="P100" s="73"/>
+      <c r="Q100" s="74"/>
+      <c r="R100" s="74"/>
+      <c r="S100" s="74"/>
+      <c r="T100" s="74"/>
+      <c r="U100" s="74"/>
+      <c r="V100" s="96"/>
     </row>
     <row r="101" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="30"/>
+      <c r="C101" s="26"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -3758,132 +3765,132 @@
       <c r="S101" s="4"/>
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
-      <c r="V101" s="16"/>
+      <c r="V101" s="15"/>
     </row>
     <row r="102" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="30"/>
+      <c r="C102" s="26"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
-      <c r="J102" s="21"/>
-      <c r="K102" s="33" t="s">
+      <c r="J102" s="19"/>
+      <c r="K102" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="L102" s="110"/>
+      <c r="M102" s="111"/>
+      <c r="N102" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="L102" s="34"/>
-      <c r="M102" s="35"/>
-      <c r="N102" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O102" s="32"/>
-      <c r="P102" s="22"/>
-      <c r="Q102" s="23"/>
+      <c r="O102" s="113"/>
+      <c r="P102" s="20"/>
+      <c r="Q102" s="21"/>
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
-      <c r="V102" s="16"/>
+      <c r="V102" s="15"/>
     </row>
     <row r="103" spans="3:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C103" s="30"/>
+      <c r="C103" s="26"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
-      <c r="J103" s="52" t="s">
+      <c r="J103" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K103" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="85" t="s">
+      <c r="K103" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="L103" s="114"/>
+      <c r="M103" s="114"/>
+      <c r="N103" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="O103" s="37">
+      <c r="O103" s="28">
         <v>5</v>
       </c>
-      <c r="P103" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q103" s="16"/>
+      <c r="P103" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q103" s="15"/>
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
-      <c r="V103" s="16"/>
+      <c r="V103" s="15"/>
     </row>
     <row r="104" spans="3:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="30"/>
+      <c r="C104" s="26"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
-      <c r="J104" s="76" t="s">
+      <c r="J104" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="K104" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="L104" s="78"/>
-      <c r="M104" s="79"/>
-      <c r="N104" s="93" t="s">
+      <c r="K104" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="L104" s="116"/>
+      <c r="M104" s="117"/>
+      <c r="N104" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="O104" s="80">
+      <c r="O104" s="57">
         <v>2</v>
       </c>
-      <c r="P104" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q104" s="95"/>
-      <c r="R104" s="104"/>
+      <c r="P104" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q104" s="119"/>
+      <c r="R104" s="76"/>
       <c r="S104" s="4"/>
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
-      <c r="V104" s="16"/>
+      <c r="V104" s="15"/>
     </row>
     <row r="105" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="30"/>
+      <c r="C105" s="26"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
-      <c r="J105" s="53" t="s">
+      <c r="J105" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K105" s="17" t="s">
+      <c r="K105" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="L105" s="120"/>
+      <c r="M105" s="120"/>
+      <c r="N105" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="O105" s="38">
+      <c r="O105" s="29">
         <v>4</v>
       </c>
-      <c r="P105" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q105" s="20"/>
+      <c r="P105" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q105" s="18"/>
       <c r="R105" s="4"/>
       <c r="S105" s="4"/>
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
-      <c r="V105" s="16"/>
+      <c r="V105" s="15"/>
     </row>
     <row r="106" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C106" s="30"/>
+      <c r="C106" s="26"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -3902,10 +3909,10 @@
       <c r="S106" s="4"/>
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
-      <c r="V106" s="16"/>
+      <c r="V106" s="15"/>
     </row>
     <row r="107" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C107" s="30"/>
+      <c r="C107" s="26"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -3915,8 +3922,8 @@
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="14" t="s">
-        <v>35</v>
+      <c r="M107" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
@@ -3926,10 +3933,10 @@
       <c r="S107" s="4"/>
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
-      <c r="V107" s="16"/>
+      <c r="V107" s="15"/>
     </row>
     <row r="108" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C108" s="30"/>
+      <c r="C108" s="26"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -3948,132 +3955,132 @@
       <c r="S108" s="4"/>
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
-      <c r="V108" s="16"/>
+      <c r="V108" s="15"/>
     </row>
     <row r="109" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="30"/>
+      <c r="C109" s="26"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
-      <c r="J109" s="21"/>
-      <c r="K109" s="33" t="s">
+      <c r="J109" s="19"/>
+      <c r="K109" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="L109" s="110"/>
+      <c r="M109" s="111"/>
+      <c r="N109" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="L109" s="34"/>
-      <c r="M109" s="35"/>
-      <c r="N109" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O109" s="32"/>
-      <c r="P109" s="22"/>
-      <c r="Q109" s="23"/>
+      <c r="O109" s="113"/>
+      <c r="P109" s="20"/>
+      <c r="Q109" s="21"/>
       <c r="R109" s="4"/>
       <c r="S109" s="4"/>
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
-      <c r="V109" s="16"/>
+      <c r="V109" s="15"/>
     </row>
     <row r="110" spans="3:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C110" s="30"/>
+      <c r="C110" s="26"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
-      <c r="J110" s="52" t="s">
+      <c r="J110" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K110" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L110" s="13"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="72" t="s">
+      <c r="K110" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="L110" s="114"/>
+      <c r="M110" s="114"/>
+      <c r="N110" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="O110" s="37">
+      <c r="O110" s="28">
         <v>5</v>
       </c>
-      <c r="P110" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q110" s="16"/>
+      <c r="P110" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q110" s="15"/>
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
-      <c r="V110" s="16"/>
+      <c r="V110" s="15"/>
     </row>
     <row r="111" spans="3:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C111" s="30"/>
+      <c r="C111" s="26"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
-      <c r="J111" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="K111" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="L111" s="78"/>
-      <c r="M111" s="79"/>
-      <c r="N111" s="84" t="s">
+      <c r="J111" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="K111" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="L111" s="116"/>
+      <c r="M111" s="117"/>
+      <c r="N111" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="O111" s="80">
+      <c r="O111" s="57">
         <v>2</v>
       </c>
-      <c r="P111" s="94" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q111" s="95"/>
-      <c r="R111" s="105"/>
+      <c r="P111" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q111" s="119"/>
+      <c r="R111" s="77"/>
       <c r="S111" s="4"/>
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
-      <c r="V111" s="16"/>
+      <c r="V111" s="15"/>
     </row>
     <row r="112" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="30"/>
+      <c r="C112" s="26"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
-      <c r="J112" s="53" t="s">
+      <c r="J112" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K112" s="17" t="s">
+      <c r="K112" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="L112" s="120"/>
+      <c r="M112" s="120"/>
+      <c r="N112" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="O112" s="38">
+      <c r="O112" s="29">
         <v>4</v>
       </c>
-      <c r="P112" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q112" s="20"/>
+      <c r="P112" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q112" s="18"/>
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
-      <c r="V112" s="16"/>
+      <c r="V112" s="15"/>
     </row>
     <row r="113" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="30"/>
+      <c r="C113" s="26"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -4092,114 +4099,133 @@
       <c r="S113" s="4"/>
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
-      <c r="V113" s="16"/>
+      <c r="V113" s="15"/>
     </row>
     <row r="114" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="29"/>
-      <c r="D114" s="106"/>
-      <c r="E114" s="106"/>
-      <c r="F114" s="106"/>
-      <c r="G114" s="106"/>
-      <c r="H114" s="106"/>
-      <c r="I114" s="106"/>
-      <c r="J114" s="106"/>
-      <c r="K114" s="106"/>
-      <c r="L114" s="106"/>
-      <c r="M114" s="106"/>
-      <c r="N114" s="106"/>
-      <c r="O114" s="106"/>
-      <c r="P114" s="106"/>
-      <c r="Q114" s="106"/>
-      <c r="R114" s="106"/>
-      <c r="S114" s="106"/>
-      <c r="T114" s="106"/>
-      <c r="U114" s="106"/>
-      <c r="V114" s="20"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="78"/>
+      <c r="E114" s="78"/>
+      <c r="F114" s="78"/>
+      <c r="G114" s="78"/>
+      <c r="H114" s="78"/>
+      <c r="I114" s="78"/>
+      <c r="J114" s="78"/>
+      <c r="K114" s="78"/>
+      <c r="L114" s="78"/>
+      <c r="M114" s="78"/>
+      <c r="N114" s="78"/>
+      <c r="O114" s="78"/>
+      <c r="P114" s="78"/>
+      <c r="Q114" s="78"/>
+      <c r="R114" s="78"/>
+      <c r="S114" s="78"/>
+      <c r="T114" s="78"/>
+      <c r="U114" s="78"/>
+      <c r="V114" s="18"/>
     </row>
     <row r="116" spans="3:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="D116" s="51" t="s">
-        <v>47</v>
+      <c r="D116" s="38" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="3:22" ht="21" x14ac:dyDescent="0.3">
-      <c r="D117" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="E117" s="47"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="47"/>
-      <c r="H117" s="47"/>
-      <c r="I117" s="47"/>
-      <c r="J117" s="47"/>
-      <c r="K117" s="47"/>
-      <c r="L117" s="47"/>
-      <c r="M117" s="47"/>
-      <c r="N117" s="47"/>
-      <c r="O117" s="47"/>
-      <c r="P117" s="47"/>
-      <c r="Q117" s="47"/>
-      <c r="R117" s="47"/>
-      <c r="S117" s="47"/>
-      <c r="T117" s="47"/>
-      <c r="U117" s="47"/>
-      <c r="V117" s="47"/>
+      <c r="D117" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="E117" s="102"/>
+      <c r="F117" s="102"/>
+      <c r="G117" s="102"/>
+      <c r="H117" s="102"/>
+      <c r="I117" s="102"/>
+      <c r="J117" s="102"/>
+      <c r="K117" s="102"/>
+      <c r="L117" s="102"/>
+      <c r="M117" s="102"/>
+      <c r="N117" s="102"/>
+      <c r="O117" s="102"/>
+      <c r="P117" s="102"/>
+      <c r="Q117" s="102"/>
+      <c r="R117" s="102"/>
+      <c r="S117" s="102"/>
+      <c r="T117" s="102"/>
+      <c r="U117" s="102"/>
+      <c r="V117" s="102"/>
     </row>
     <row r="118" spans="3:22" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D118" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="E118" s="55"/>
-      <c r="F118" s="55"/>
-      <c r="G118" s="55"/>
-      <c r="H118" s="55"/>
-      <c r="I118" s="55"/>
-      <c r="J118" s="55"/>
-      <c r="K118" s="55"/>
-      <c r="L118" s="55"/>
-      <c r="M118" s="55"/>
-      <c r="N118" s="55"/>
-      <c r="O118" s="55"/>
-      <c r="P118" s="55"/>
-      <c r="Q118" s="55"/>
-      <c r="R118" s="55"/>
-      <c r="S118" s="55"/>
-      <c r="T118" s="55"/>
-      <c r="U118" s="55"/>
-      <c r="V118" s="55"/>
+      <c r="D118" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="E118" s="103"/>
+      <c r="F118" s="103"/>
+      <c r="G118" s="103"/>
+      <c r="H118" s="103"/>
+      <c r="I118" s="103"/>
+      <c r="J118" s="103"/>
+      <c r="K118" s="103"/>
+      <c r="L118" s="103"/>
+      <c r="M118" s="103"/>
+      <c r="N118" s="103"/>
+      <c r="O118" s="103"/>
+      <c r="P118" s="103"/>
+      <c r="Q118" s="103"/>
+      <c r="R118" s="103"/>
+      <c r="S118" s="103"/>
+      <c r="T118" s="103"/>
+      <c r="U118" s="103"/>
+      <c r="V118" s="103"/>
     </row>
     <row r="119" spans="3:22" ht="21" x14ac:dyDescent="0.3">
-      <c r="D119" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="E119" s="47"/>
-      <c r="F119" s="47"/>
-      <c r="G119" s="47"/>
-      <c r="H119" s="47"/>
-      <c r="I119" s="47"/>
-      <c r="J119" s="47"/>
-      <c r="K119" s="47"/>
-      <c r="L119" s="47"/>
-      <c r="M119" s="47"/>
-      <c r="N119" s="47"/>
-      <c r="O119" s="47"/>
-      <c r="P119" s="47"/>
-      <c r="Q119" s="47"/>
-      <c r="R119" s="47"/>
-      <c r="S119" s="47"/>
-      <c r="T119" s="47"/>
-      <c r="U119" s="47"/>
-      <c r="V119" s="47"/>
+      <c r="D119" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E119" s="102"/>
+      <c r="F119" s="102"/>
+      <c r="G119" s="102"/>
+      <c r="H119" s="102"/>
+      <c r="I119" s="102"/>
+      <c r="J119" s="102"/>
+      <c r="K119" s="102"/>
+      <c r="L119" s="102"/>
+      <c r="M119" s="102"/>
+      <c r="N119" s="102"/>
+      <c r="O119" s="102"/>
+      <c r="P119" s="102"/>
+      <c r="Q119" s="102"/>
+      <c r="R119" s="102"/>
+      <c r="S119" s="102"/>
+      <c r="T119" s="102"/>
+      <c r="U119" s="102"/>
+      <c r="V119" s="102"/>
     </row>
     <row r="120" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D120" s="50"/>
+      <c r="D120" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D117:V117"/>
-    <mergeCell ref="D118:V118"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
     <mergeCell ref="D119:V119"/>
     <mergeCell ref="R8:U8"/>
     <mergeCell ref="R7:U7"/>
@@ -4216,6 +4242,11 @@
     <mergeCell ref="P111:Q111"/>
     <mergeCell ref="K112:M112"/>
     <mergeCell ref="K102:M102"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D117:V117"/>
+    <mergeCell ref="D118:V118"/>
     <mergeCell ref="N102:O102"/>
     <mergeCell ref="K103:M103"/>
     <mergeCell ref="K104:M104"/>
@@ -4227,30 +4258,6 @@
     <mergeCell ref="N87:O87"/>
     <mergeCell ref="K88:M88"/>
     <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:M25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="35" orientation="portrait" r:id="rId1"/>

--- a/docs/images/ntrace_message_generation_example_source.xlsx
+++ b/docs/images/ntrace_message_generation_example_source.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nxa16392\Documents\riscv\ntrace_docs\doc_images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nxa16392\Documents\riscv\ntrace_docs\doc_images_june_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{306BDF80-9285-43C4-A470-1D0C419ADC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80743490-1F2F-45C6-91D0-604A4391D7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36450" yWindow="1950" windowWidth="28800" windowHeight="15885" xr2:uid="{086EC86F-6431-4D9B-95E7-688D8015CA7E}"/>
+    <workbookView xWindow="-33540" yWindow="3570" windowWidth="30435" windowHeight="15825" xr2:uid="{086EC86F-6431-4D9B-95E7-688D8015CA7E}"/>
   </bookViews>
   <sheets>
     <sheet name="n-trace_v_test" sheetId="4" r:id="rId1"/>
@@ -999,7 +999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1104,14 +1104,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1158,6 +1154,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1167,66 +1232,9 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1239,18 +1247,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1570,8 +1575,8 @@
   </sheetPr>
   <dimension ref="B1:AA120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1587,17 +1592,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
       <c r="M1" s="36"/>
       <c r="N1" s="36"/>
       <c r="O1" s="36"/>
@@ -1613,135 +1618,135 @@
       <c r="Q2" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="98" t="s">
+      <c r="R2" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="100"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="121"/>
     </row>
     <row r="3" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
       <c r="Q3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="104" t="s">
+      <c r="R3" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="106"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="114"/>
     </row>
     <row r="4" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
       <c r="Q4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="104" t="s">
+      <c r="R4" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="106"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="114"/>
     </row>
     <row r="5" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
       <c r="Q5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="104" t="s">
+      <c r="R5" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="106"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="114"/>
     </row>
     <row r="6" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
       <c r="Q6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="104" t="s">
+      <c r="R6" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="105"/>
-      <c r="T6" s="105"/>
-      <c r="U6" s="106"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="114"/>
     </row>
     <row r="7" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
       <c r="Q7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="104" t="s">
+      <c r="R7" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="S7" s="105"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="106"/>
+      <c r="S7" s="113"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="114"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.25">
       <c r="Q8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="104" t="s">
+      <c r="R8" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="106"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="114"/>
     </row>
     <row r="9" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q9" s="35" t="s">
@@ -1773,7 +1778,7 @@
       <c r="R11" s="4"/>
     </row>
     <row r="12" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="69"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="8"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1784,7 +1789,7 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="69"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="8"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1810,7 +1815,7 @@
       <c r="R14" s="4"/>
     </row>
     <row r="15" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="69"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="8"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1822,29 +1827,29 @@
     </row>
     <row r="16" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C16" s="31"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="71"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="69"/>
     </row>
     <row r="17" spans="3:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C17" s="26"/>
-      <c r="D17" s="86"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="13"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1896,11 +1901,11 @@
     </row>
     <row r="19" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C19" s="26"/>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="101"/>
-      <c r="F19" s="97"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="95"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1916,13 +1921,13 @@
       <c r="S19" s="5"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="95"/>
+      <c r="V19" s="93"/>
     </row>
     <row r="20" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C20" s="26"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="97"/>
+      <c r="F20" s="95"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1938,37 +1943,37 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="95"/>
+      <c r="V20" s="93"/>
     </row>
     <row r="21" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C21" s="26"/>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="101"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73" t="s">
+      <c r="E21" s="99"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="83" t="s">
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74" t="s">
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="96"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="94"/>
     </row>
     <row r="22" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="26"/>
@@ -2001,15 +2006,15 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="19"/>
-      <c r="K23" s="109" t="s">
+      <c r="K23" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="110"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="112" t="s">
+      <c r="L23" s="101"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="O23" s="113"/>
+      <c r="O23" s="104"/>
       <c r="P23" s="20"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="4"/>
@@ -2029,11 +2034,11 @@
       <c r="J24" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="114" t="s">
+      <c r="K24" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="L24" s="114"/>
-      <c r="M24" s="114"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
       <c r="N24" s="52" t="s">
         <v>16</v>
       </c>
@@ -2061,11 +2066,11 @@
       <c r="J25" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="125" t="s">
+      <c r="K25" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
       <c r="N25" s="53" t="s">
         <v>22</v>
       </c>
@@ -2093,11 +2098,11 @@
       <c r="J26" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="125" t="s">
+      <c r="K26" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
       <c r="N26" s="53" t="s">
         <v>16</v>
       </c>
@@ -2125,11 +2130,11 @@
       <c r="J27" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="120" t="s">
+      <c r="K27" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
       <c r="N27" s="54" t="s">
         <v>22</v>
       </c>
@@ -2153,20 +2158,20 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="127"/>
-      <c r="T28" s="127"/>
-      <c r="U28" s="127"/>
-      <c r="V28" s="128"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="96"/>
+      <c r="V28" s="97"/>
       <c r="W28" s="27"/>
       <c r="X28" s="27"/>
       <c r="Y28" s="27"/>
@@ -2175,24 +2180,24 @@
     </row>
     <row r="29" spans="3:27" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="25"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
       <c r="N29" s="16"/>
-      <c r="O29" s="90"/>
+      <c r="O29" s="88"/>
       <c r="P29" s="17"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="76"/>
+      <c r="T29" s="76"/>
+      <c r="U29" s="76"/>
       <c r="V29" s="18"/>
     </row>
     <row r="31" spans="3:27" x14ac:dyDescent="0.25">
@@ -2206,32 +2211,32 @@
       <c r="U31" s="10"/>
     </row>
     <row r="32" spans="3:27" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="69"/>
+      <c r="D32" s="67"/>
       <c r="E32" s="8"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
     </row>
     <row r="33" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C33" s="31"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="70"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="91"/>
-      <c r="U33" s="91"/>
-      <c r="V33" s="71"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="69"/>
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C34" s="26"/>
@@ -2263,11 +2268,11 @@
     </row>
     <row r="35" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C35" s="26"/>
-      <c r="D35" s="72" t="s">
+      <c r="D35" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="92"/>
-      <c r="F35" s="97"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="95"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2289,7 +2294,7 @@
       <c r="C36" s="26"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="97"/>
+      <c r="F36" s="95"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2305,37 +2310,37 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
-      <c r="V36" s="95"/>
+      <c r="V36" s="93"/>
     </row>
     <row r="37" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C37" s="26"/>
-      <c r="D37" s="72" t="s">
+      <c r="D37" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="92"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73" t="s">
+      <c r="E37" s="90"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="83" t="s">
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74" t="s">
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="S37" s="74"/>
-      <c r="T37" s="74"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="96"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="94"/>
     </row>
     <row r="38" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="26"/>
@@ -2368,15 +2373,15 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="19"/>
-      <c r="K39" s="109" t="s">
+      <c r="K39" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="110"/>
-      <c r="M39" s="111"/>
-      <c r="N39" s="112" t="s">
+      <c r="L39" s="101"/>
+      <c r="M39" s="102"/>
+      <c r="N39" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="O39" s="113"/>
+      <c r="O39" s="104"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="4"/>
@@ -2396,11 +2401,11 @@
       <c r="J40" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="126" t="s">
+      <c r="K40" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="L40" s="126"/>
-      <c r="M40" s="126"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="107"/>
       <c r="N40" s="55" t="s">
         <v>22</v>
       </c>
@@ -2411,7 +2416,7 @@
         <v>24</v>
       </c>
       <c r="Q40" s="15"/>
-      <c r="R40" s="84"/>
+      <c r="R40" s="82"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
@@ -2428,11 +2433,11 @@
       <c r="J41" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K41" s="125" t="s">
+      <c r="K41" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="L41" s="125"/>
-      <c r="M41" s="125"/>
+      <c r="L41" s="98"/>
+      <c r="M41" s="98"/>
       <c r="N41" s="53" t="s">
         <v>16</v>
       </c>
@@ -2460,11 +2465,11 @@
       <c r="J42" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="120" t="s">
+      <c r="K42" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="L42" s="120"/>
-      <c r="M42" s="120"/>
+      <c r="L42" s="106"/>
+      <c r="M42" s="106"/>
       <c r="N42" s="54" t="s">
         <v>22</v>
       </c>
@@ -2489,8 +2494,8 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="76"/>
+      <c r="J43" s="91"/>
+      <c r="K43" s="74"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -2505,24 +2510,24 @@
     </row>
     <row r="44" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="25"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="78"/>
-      <c r="M44" s="78"/>
-      <c r="N44" s="78"/>
-      <c r="O44" s="78"/>
-      <c r="P44" s="78"/>
-      <c r="Q44" s="78"/>
-      <c r="R44" s="78"/>
-      <c r="S44" s="78"/>
-      <c r="T44" s="78"/>
-      <c r="U44" s="78"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="76"/>
+      <c r="R44" s="76"/>
+      <c r="S44" s="76"/>
+      <c r="T44" s="76"/>
+      <c r="U44" s="76"/>
       <c r="V44" s="18"/>
     </row>
     <row r="45" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2542,34 +2547,34 @@
       </c>
     </row>
     <row r="48" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="69"/>
+      <c r="D48" s="67"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C49" s="31"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="70"/>
-      <c r="R49" s="70"/>
-      <c r="S49" s="70"/>
-      <c r="T49" s="70"/>
-      <c r="U49" s="70"/>
-      <c r="V49" s="71"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="68"/>
+      <c r="P49" s="68"/>
+      <c r="Q49" s="68"/>
+      <c r="R49" s="68"/>
+      <c r="S49" s="68"/>
+      <c r="T49" s="68"/>
+      <c r="U49" s="68"/>
+      <c r="V49" s="69"/>
     </row>
     <row r="50" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C50" s="26"/>
-      <c r="D50" s="97"/>
+      <c r="D50" s="95"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -2597,11 +2602,11 @@
     </row>
     <row r="51" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C51" s="26"/>
-      <c r="D51" s="72" t="s">
+      <c r="D51" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="92"/>
-      <c r="F51" s="97"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="95"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -2623,7 +2628,7 @@
       <c r="C52" s="26"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="97"/>
+      <c r="F52" s="95"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -2639,37 +2644,37 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
-      <c r="V52" s="95"/>
+      <c r="V52" s="93"/>
     </row>
     <row r="53" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C53" s="26"/>
-      <c r="D53" s="72" t="s">
+      <c r="D53" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="92"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73" t="s">
+      <c r="E53" s="90"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="73"/>
-      <c r="L53" s="73"/>
-      <c r="M53" s="82"/>
-      <c r="N53" s="83" t="s">
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="80"/>
+      <c r="N53" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="O53" s="82"/>
-      <c r="P53" s="82"/>
-      <c r="Q53" s="74"/>
-      <c r="R53" s="74" t="s">
+      <c r="O53" s="80"/>
+      <c r="P53" s="80"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="S53" s="74"/>
-      <c r="T53" s="74"/>
-      <c r="U53" s="74"/>
-      <c r="V53" s="96"/>
+      <c r="S53" s="72"/>
+      <c r="T53" s="72"/>
+      <c r="U53" s="72"/>
+      <c r="V53" s="94"/>
     </row>
     <row r="54" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="26"/>
@@ -2702,15 +2707,15 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="19"/>
-      <c r="K55" s="109" t="s">
+      <c r="K55" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="L55" s="110"/>
-      <c r="M55" s="111"/>
-      <c r="N55" s="112" t="s">
+      <c r="L55" s="101"/>
+      <c r="M55" s="102"/>
+      <c r="N55" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="O55" s="113"/>
+      <c r="O55" s="104"/>
       <c r="P55" s="20"/>
       <c r="Q55" s="21"/>
       <c r="R55" s="4"/>
@@ -2730,11 +2735,11 @@
       <c r="J56" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="114" t="s">
+      <c r="K56" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="L56" s="114"/>
-      <c r="M56" s="114"/>
+      <c r="L56" s="105"/>
+      <c r="M56" s="105"/>
       <c r="N56" s="52" t="s">
         <v>16</v>
       </c>
@@ -2762,11 +2767,11 @@
       <c r="J57" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K57" s="125" t="s">
+      <c r="K57" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="L57" s="125"/>
-      <c r="M57" s="125"/>
+      <c r="L57" s="98"/>
+      <c r="M57" s="98"/>
       <c r="N57" s="53" t="s">
         <v>22</v>
       </c>
@@ -2791,14 +2796,14 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="40" t="s">
+      <c r="J58" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="120" t="s">
+      <c r="K58" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="L58" s="120"/>
-      <c r="M58" s="120"/>
+      <c r="L58" s="126"/>
+      <c r="M58" s="126"/>
       <c r="N58" s="54" t="s">
         <v>22</v>
       </c>
@@ -2808,7 +2813,7 @@
       <c r="P58" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="Q58" s="18"/>
+      <c r="Q58" s="131"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
@@ -2828,7 +2833,7 @@
       <c r="L59" s="22"/>
       <c r="M59" s="22"/>
       <c r="N59" s="14"/>
-      <c r="O59" s="87"/>
+      <c r="O59" s="85"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
@@ -2839,24 +2844,24 @@
     </row>
     <row r="60" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C60" s="25"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="89"/>
-      <c r="L60" s="89"/>
-      <c r="M60" s="89"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="86"/>
+      <c r="K60" s="87"/>
+      <c r="L60" s="87"/>
+      <c r="M60" s="87"/>
       <c r="N60" s="16"/>
-      <c r="O60" s="90"/>
+      <c r="O60" s="88"/>
       <c r="P60" s="17"/>
-      <c r="Q60" s="78"/>
-      <c r="R60" s="78"/>
-      <c r="S60" s="78"/>
-      <c r="T60" s="78"/>
-      <c r="U60" s="78"/>
+      <c r="Q60" s="76"/>
+      <c r="R60" s="76"/>
+      <c r="S60" s="76"/>
+      <c r="T60" s="76"/>
+      <c r="U60" s="76"/>
       <c r="V60" s="18"/>
     </row>
     <row r="62" spans="3:22" x14ac:dyDescent="0.25">
@@ -2875,7 +2880,7 @@
       <c r="R62" s="4"/>
     </row>
     <row r="63" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="69"/>
+      <c r="D63" s="67"/>
       <c r="E63" s="27"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
@@ -2887,25 +2892,25 @@
     </row>
     <row r="64" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C64" s="31"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
-      <c r="K64" s="70"/>
-      <c r="L64" s="70"/>
-      <c r="M64" s="70"/>
-      <c r="N64" s="70"/>
-      <c r="O64" s="70"/>
-      <c r="P64" s="70"/>
-      <c r="Q64" s="70"/>
-      <c r="R64" s="70"/>
-      <c r="S64" s="70"/>
-      <c r="T64" s="70"/>
-      <c r="U64" s="70"/>
-      <c r="V64" s="71"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="68"/>
+      <c r="M64" s="68"/>
+      <c r="N64" s="68"/>
+      <c r="O64" s="68"/>
+      <c r="P64" s="68"/>
+      <c r="Q64" s="68"/>
+      <c r="R64" s="68"/>
+      <c r="S64" s="68"/>
+      <c r="T64" s="68"/>
+      <c r="U64" s="68"/>
+      <c r="V64" s="69"/>
     </row>
     <row r="65" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C65" s="26"/>
@@ -2941,11 +2946,11 @@
     </row>
     <row r="66" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C66" s="26"/>
-      <c r="D66" s="72" t="s">
+      <c r="D66" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="72"/>
-      <c r="F66" s="97"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="95"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -2967,7 +2972,7 @@
       <c r="C67" s="26"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="97"/>
+      <c r="F67" s="95"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -2983,37 +2988,37 @@
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
-      <c r="V67" s="95"/>
+      <c r="V67" s="93"/>
     </row>
     <row r="68" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C68" s="26"/>
-      <c r="D68" s="72" t="s">
+      <c r="D68" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="72"/>
-      <c r="F68" s="97"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="73" t="s">
+      <c r="E68" s="70"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="I68" s="73"/>
-      <c r="J68" s="73"/>
-      <c r="K68" s="73"/>
-      <c r="L68" s="73"/>
-      <c r="M68" s="82"/>
-      <c r="N68" s="83" t="s">
+      <c r="I68" s="71"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="71"/>
+      <c r="L68" s="71"/>
+      <c r="M68" s="80"/>
+      <c r="N68" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="O68" s="82"/>
-      <c r="P68" s="82"/>
-      <c r="Q68" s="74"/>
-      <c r="R68" s="74" t="s">
+      <c r="O68" s="80"/>
+      <c r="P68" s="80"/>
+      <c r="Q68" s="72"/>
+      <c r="R68" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="S68" s="74"/>
-      <c r="T68" s="74"/>
-      <c r="U68" s="74"/>
-      <c r="V68" s="96"/>
+      <c r="S68" s="72"/>
+      <c r="T68" s="72"/>
+      <c r="U68" s="72"/>
+      <c r="V68" s="94"/>
     </row>
     <row r="69" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C69" s="26"/>
@@ -3046,15 +3051,15 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="19"/>
-      <c r="K70" s="109" t="s">
+      <c r="K70" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="L70" s="110"/>
-      <c r="M70" s="111"/>
-      <c r="N70" s="112" t="s">
+      <c r="L70" s="101"/>
+      <c r="M70" s="102"/>
+      <c r="N70" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="O70" s="113"/>
+      <c r="O70" s="104"/>
       <c r="P70" s="20"/>
       <c r="Q70" s="21"/>
       <c r="R70" s="4"/>
@@ -3074,11 +3079,11 @@
       <c r="J71" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K71" s="114" t="s">
+      <c r="K71" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="L71" s="114"/>
-      <c r="M71" s="114"/>
+      <c r="L71" s="105"/>
+      <c r="M71" s="105"/>
       <c r="N71" s="52" t="s">
         <v>16</v>
       </c>
@@ -3106,11 +3111,11 @@
       <c r="J72" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="125" t="s">
+      <c r="K72" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="L72" s="125"/>
-      <c r="M72" s="125"/>
+      <c r="L72" s="98"/>
+      <c r="M72" s="98"/>
       <c r="N72" s="53" t="s">
         <v>22</v>
       </c>
@@ -3138,11 +3143,11 @@
       <c r="J73" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="K73" s="114" t="s">
+      <c r="K73" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="L73" s="114"/>
-      <c r="M73" s="114"/>
+      <c r="L73" s="105"/>
+      <c r="M73" s="105"/>
       <c r="N73" s="58" t="s">
         <v>16</v>
       </c>
@@ -3170,21 +3175,21 @@
       <c r="J74" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="K74" s="115" t="s">
+      <c r="K74" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="L74" s="116"/>
-      <c r="M74" s="117"/>
+      <c r="L74" s="109"/>
+      <c r="M74" s="110"/>
       <c r="N74" s="59" t="s">
         <v>16</v>
       </c>
       <c r="O74" s="57">
         <v>6</v>
       </c>
-      <c r="P74" s="121" t="s">
+      <c r="P74" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="Q74" s="122"/>
+      <c r="Q74" s="124"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
@@ -3202,11 +3207,11 @@
       <c r="J75" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K75" s="120" t="s">
+      <c r="K75" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="L75" s="120"/>
-      <c r="M75" s="120"/>
+      <c r="L75" s="106"/>
+      <c r="M75" s="106"/>
       <c r="N75" s="54" t="s">
         <v>22</v>
       </c>
@@ -3247,24 +3252,24 @@
     </row>
     <row r="77" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C77" s="25"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="78"/>
-      <c r="F77" s="78"/>
-      <c r="G77" s="78"/>
-      <c r="H77" s="78"/>
-      <c r="I77" s="78"/>
-      <c r="J77" s="78"/>
-      <c r="K77" s="78"/>
-      <c r="L77" s="78"/>
-      <c r="M77" s="78"/>
-      <c r="N77" s="78"/>
-      <c r="O77" s="78"/>
-      <c r="P77" s="78"/>
-      <c r="Q77" s="78"/>
-      <c r="R77" s="78"/>
-      <c r="S77" s="78"/>
-      <c r="T77" s="78"/>
-      <c r="U77" s="78"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="76"/>
+      <c r="H77" s="76"/>
+      <c r="I77" s="76"/>
+      <c r="J77" s="76"/>
+      <c r="K77" s="76"/>
+      <c r="L77" s="76"/>
+      <c r="M77" s="76"/>
+      <c r="N77" s="76"/>
+      <c r="O77" s="76"/>
+      <c r="P77" s="76"/>
+      <c r="Q77" s="76"/>
+      <c r="R77" s="76"/>
+      <c r="S77" s="76"/>
+      <c r="T77" s="76"/>
+      <c r="U77" s="76"/>
       <c r="V77" s="18"/>
     </row>
     <row r="79" spans="3:22" x14ac:dyDescent="0.25">
@@ -3276,30 +3281,30 @@
       </c>
     </row>
     <row r="80" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="69"/>
+      <c r="D80" s="67"/>
       <c r="E80" s="8"/>
     </row>
     <row r="81" spans="3:24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C81" s="31"/>
-      <c r="D81" s="80"/>
-      <c r="E81" s="81"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="70"/>
-      <c r="H81" s="70"/>
-      <c r="I81" s="70"/>
-      <c r="J81" s="70"/>
-      <c r="K81" s="70"/>
-      <c r="L81" s="70"/>
-      <c r="M81" s="70"/>
-      <c r="N81" s="70"/>
-      <c r="O81" s="70"/>
-      <c r="P81" s="70"/>
-      <c r="Q81" s="70"/>
-      <c r="R81" s="70"/>
-      <c r="S81" s="70"/>
-      <c r="T81" s="70"/>
-      <c r="U81" s="70"/>
-      <c r="V81" s="71"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="79"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="68"/>
+      <c r="H81" s="68"/>
+      <c r="I81" s="68"/>
+      <c r="J81" s="68"/>
+      <c r="K81" s="68"/>
+      <c r="L81" s="68"/>
+      <c r="M81" s="68"/>
+      <c r="N81" s="68"/>
+      <c r="O81" s="68"/>
+      <c r="P81" s="68"/>
+      <c r="Q81" s="68"/>
+      <c r="R81" s="68"/>
+      <c r="S81" s="68"/>
+      <c r="T81" s="68"/>
+      <c r="U81" s="68"/>
+      <c r="V81" s="69"/>
       <c r="W81" s="4"/>
     </row>
     <row r="82" spans="3:24" x14ac:dyDescent="0.25">
@@ -3331,11 +3336,11 @@
     </row>
     <row r="83" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C83" s="26"/>
-      <c r="D83" s="72" t="s">
+      <c r="D83" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E83" s="72"/>
-      <c r="F83" s="97"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="95"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -3359,7 +3364,7 @@
       <c r="C84" s="26"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="97"/>
+      <c r="F84" s="95"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
@@ -3375,39 +3380,39 @@
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
-      <c r="V84" s="95"/>
+      <c r="V84" s="93"/>
       <c r="W84" s="4"/>
       <c r="X84" s="4"/>
     </row>
     <row r="85" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C85" s="26"/>
-      <c r="D85" s="72" t="s">
+      <c r="D85" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="72"/>
-      <c r="F85" s="97"/>
-      <c r="G85" s="73"/>
-      <c r="H85" s="73" t="s">
+      <c r="E85" s="70"/>
+      <c r="F85" s="95"/>
+      <c r="G85" s="71"/>
+      <c r="H85" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="I85" s="73"/>
-      <c r="J85" s="73"/>
-      <c r="K85" s="82"/>
-      <c r="L85" s="82"/>
-      <c r="M85" s="82"/>
-      <c r="N85" s="83" t="s">
+      <c r="I85" s="71"/>
+      <c r="J85" s="71"/>
+      <c r="K85" s="80"/>
+      <c r="L85" s="80"/>
+      <c r="M85" s="80"/>
+      <c r="N85" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="O85" s="82"/>
-      <c r="P85" s="82"/>
-      <c r="Q85" s="74"/>
-      <c r="R85" s="74" t="s">
+      <c r="O85" s="80"/>
+      <c r="P85" s="80"/>
+      <c r="Q85" s="72"/>
+      <c r="R85" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="S85" s="74"/>
-      <c r="T85" s="74"/>
-      <c r="U85" s="74"/>
-      <c r="V85" s="96"/>
+      <c r="S85" s="72"/>
+      <c r="T85" s="72"/>
+      <c r="U85" s="72"/>
+      <c r="V85" s="94"/>
       <c r="W85" s="4"/>
       <c r="X85" s="4"/>
     </row>
@@ -3444,15 +3449,15 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="19"/>
-      <c r="K87" s="109" t="s">
+      <c r="K87" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="L87" s="110"/>
-      <c r="M87" s="111"/>
-      <c r="N87" s="112" t="s">
+      <c r="L87" s="101"/>
+      <c r="M87" s="102"/>
+      <c r="N87" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="O87" s="113"/>
+      <c r="O87" s="104"/>
       <c r="P87" s="20"/>
       <c r="Q87" s="21"/>
       <c r="R87" s="4"/>
@@ -3471,25 +3476,25 @@
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-      <c r="J88" s="62" t="s">
+      <c r="J88" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="K88" s="123" t="s">
+      <c r="K88" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="L88" s="123"/>
-      <c r="M88" s="123"/>
-      <c r="N88" s="63" t="s">
+      <c r="L88" s="125"/>
+      <c r="M88" s="125"/>
+      <c r="N88" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="O88" s="64">
+      <c r="O88" s="63">
         <v>0</v>
       </c>
-      <c r="P88" s="65" t="s">
+      <c r="P88" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="Q88" s="66"/>
-      <c r="R88" s="84"/>
+      <c r="Q88" s="64"/>
+      <c r="R88" s="82"/>
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
@@ -3505,25 +3510,25 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-      <c r="J89" s="40" t="s">
+      <c r="J89" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="K89" s="124" t="s">
+      <c r="K89" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="L89" s="124"/>
-      <c r="M89" s="124"/>
+      <c r="L89" s="126"/>
+      <c r="M89" s="126"/>
       <c r="N89" s="54" t="s">
         <v>22</v>
       </c>
       <c r="O89" s="29">
         <v>4</v>
       </c>
-      <c r="P89" s="17" t="s">
+      <c r="P89" s="130" t="s">
         <v>25</v>
       </c>
       <c r="Q89" s="18"/>
-      <c r="R89" s="84"/>
+      <c r="R89" s="82"/>
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
@@ -3540,7 +3545,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="76"/>
+      <c r="K90" s="74"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
@@ -3557,24 +3562,24 @@
     </row>
     <row r="91" spans="3:24" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C91" s="25"/>
-      <c r="D91" s="78"/>
-      <c r="E91" s="78"/>
-      <c r="F91" s="78"/>
-      <c r="G91" s="78"/>
-      <c r="H91" s="78"/>
-      <c r="I91" s="78"/>
-      <c r="J91" s="78"/>
-      <c r="K91" s="85"/>
-      <c r="L91" s="78"/>
-      <c r="M91" s="78"/>
-      <c r="N91" s="78"/>
-      <c r="O91" s="78"/>
-      <c r="P91" s="78"/>
-      <c r="Q91" s="78"/>
-      <c r="R91" s="78"/>
-      <c r="S91" s="78"/>
-      <c r="T91" s="78"/>
-      <c r="U91" s="78"/>
+      <c r="D91" s="76"/>
+      <c r="E91" s="76"/>
+      <c r="F91" s="76"/>
+      <c r="G91" s="76"/>
+      <c r="H91" s="76"/>
+      <c r="I91" s="76"/>
+      <c r="J91" s="76"/>
+      <c r="K91" s="83"/>
+      <c r="L91" s="76"/>
+      <c r="M91" s="76"/>
+      <c r="N91" s="76"/>
+      <c r="O91" s="76"/>
+      <c r="P91" s="76"/>
+      <c r="Q91" s="76"/>
+      <c r="R91" s="76"/>
+      <c r="S91" s="76"/>
+      <c r="T91" s="76"/>
+      <c r="U91" s="76"/>
       <c r="V91" s="18"/>
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
@@ -3598,7 +3603,7 @@
       <c r="R93" s="4"/>
     </row>
     <row r="94" spans="3:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D94" s="69"/>
+      <c r="D94" s="67"/>
       <c r="E94" s="27"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
@@ -3609,7 +3614,7 @@
       <c r="R94" s="4"/>
     </row>
     <row r="95" spans="3:24" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D95" s="69"/>
+      <c r="D95" s="67"/>
       <c r="E95" s="27"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
@@ -3621,25 +3626,25 @@
     </row>
     <row r="96" spans="3:24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C96" s="31"/>
-      <c r="D96" s="80"/>
-      <c r="E96" s="79"/>
-      <c r="F96" s="70"/>
-      <c r="G96" s="70"/>
-      <c r="H96" s="70"/>
-      <c r="I96" s="70"/>
-      <c r="J96" s="70"/>
-      <c r="K96" s="70"/>
-      <c r="L96" s="70"/>
-      <c r="M96" s="70"/>
-      <c r="N96" s="70"/>
-      <c r="O96" s="70"/>
-      <c r="P96" s="70"/>
-      <c r="Q96" s="70"/>
-      <c r="R96" s="70"/>
-      <c r="S96" s="70"/>
-      <c r="T96" s="70"/>
-      <c r="U96" s="70"/>
-      <c r="V96" s="71"/>
+      <c r="D96" s="78"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="68"/>
+      <c r="G96" s="68"/>
+      <c r="H96" s="68"/>
+      <c r="I96" s="68"/>
+      <c r="J96" s="68"/>
+      <c r="K96" s="68"/>
+      <c r="L96" s="68"/>
+      <c r="M96" s="68"/>
+      <c r="N96" s="68"/>
+      <c r="O96" s="68"/>
+      <c r="P96" s="68"/>
+      <c r="Q96" s="68"/>
+      <c r="R96" s="68"/>
+      <c r="S96" s="68"/>
+      <c r="T96" s="68"/>
+      <c r="U96" s="68"/>
+      <c r="V96" s="69"/>
     </row>
     <row r="97" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C97" s="26"/>
@@ -3675,11 +3680,11 @@
     </row>
     <row r="98" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C98" s="26"/>
-      <c r="D98" s="101" t="s">
+      <c r="D98" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="101"/>
-      <c r="F98" s="97"/>
+      <c r="E98" s="99"/>
+      <c r="F98" s="95"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="6"/>
@@ -3701,7 +3706,7 @@
       <c r="C99" s="26"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="97"/>
+      <c r="F99" s="95"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -3717,33 +3722,33 @@
       <c r="S99" s="4"/>
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
-      <c r="V99" s="95"/>
+      <c r="V99" s="93"/>
     </row>
     <row r="100" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C100" s="26"/>
-      <c r="D100" s="101" t="s">
+      <c r="D100" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="101"/>
-      <c r="F100" s="97"/>
-      <c r="G100" s="73"/>
-      <c r="H100" s="73"/>
-      <c r="I100" s="73"/>
-      <c r="J100" s="73"/>
-      <c r="K100" s="73"/>
-      <c r="L100" s="73"/>
-      <c r="M100" s="74" t="s">
+      <c r="E100" s="99"/>
+      <c r="F100" s="95"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="71"/>
+      <c r="I100" s="71"/>
+      <c r="J100" s="71"/>
+      <c r="K100" s="71"/>
+      <c r="L100" s="71"/>
+      <c r="M100" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="N100" s="75"/>
-      <c r="O100" s="73"/>
-      <c r="P100" s="73"/>
-      <c r="Q100" s="74"/>
-      <c r="R100" s="74"/>
-      <c r="S100" s="74"/>
-      <c r="T100" s="74"/>
-      <c r="U100" s="74"/>
-      <c r="V100" s="96"/>
+      <c r="N100" s="73"/>
+      <c r="O100" s="71"/>
+      <c r="P100" s="71"/>
+      <c r="Q100" s="72"/>
+      <c r="R100" s="72"/>
+      <c r="S100" s="72"/>
+      <c r="T100" s="72"/>
+      <c r="U100" s="72"/>
+      <c r="V100" s="94"/>
     </row>
     <row r="101" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C101" s="26"/>
@@ -3776,15 +3781,15 @@
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="19"/>
-      <c r="K102" s="109" t="s">
+      <c r="K102" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="L102" s="110"/>
-      <c r="M102" s="111"/>
-      <c r="N102" s="112" t="s">
+      <c r="L102" s="101"/>
+      <c r="M102" s="102"/>
+      <c r="N102" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="O102" s="113"/>
+      <c r="O102" s="104"/>
       <c r="P102" s="20"/>
       <c r="Q102" s="21"/>
       <c r="R102" s="4"/>
@@ -3804,11 +3809,11 @@
       <c r="J103" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K103" s="114" t="s">
+      <c r="K103" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="L103" s="114"/>
-      <c r="M103" s="114"/>
+      <c r="L103" s="105"/>
+      <c r="M103" s="105"/>
       <c r="N103" s="60" t="s">
         <v>16</v>
       </c>
@@ -3836,22 +3841,22 @@
       <c r="J104" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="K104" s="115" t="s">
+      <c r="K104" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="L104" s="116"/>
-      <c r="M104" s="117"/>
-      <c r="N104" s="67" t="s">
+      <c r="L104" s="109"/>
+      <c r="M104" s="110"/>
+      <c r="N104" s="65" t="s">
         <v>16</v>
       </c>
       <c r="O104" s="57">
         <v>2</v>
       </c>
-      <c r="P104" s="118" t="s">
+      <c r="P104" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="Q104" s="119"/>
-      <c r="R104" s="76"/>
+      <c r="Q104" s="118"/>
+      <c r="R104" s="74"/>
       <c r="S104" s="4"/>
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
@@ -3868,11 +3873,11 @@
       <c r="J105" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K105" s="120" t="s">
+      <c r="K105" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="L105" s="120"/>
-      <c r="M105" s="120"/>
+      <c r="L105" s="106"/>
+      <c r="M105" s="106"/>
       <c r="N105" s="61" t="s">
         <v>22</v>
       </c>
@@ -3966,15 +3971,15 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="19"/>
-      <c r="K109" s="109" t="s">
+      <c r="K109" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="L109" s="110"/>
-      <c r="M109" s="111"/>
-      <c r="N109" s="112" t="s">
+      <c r="L109" s="101"/>
+      <c r="M109" s="102"/>
+      <c r="N109" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="O109" s="113"/>
+      <c r="O109" s="104"/>
       <c r="P109" s="20"/>
       <c r="Q109" s="21"/>
       <c r="R109" s="4"/>
@@ -3994,11 +3999,11 @@
       <c r="J110" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K110" s="114" t="s">
+      <c r="K110" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="L110" s="114"/>
-      <c r="M110" s="114"/>
+      <c r="L110" s="105"/>
+      <c r="M110" s="105"/>
       <c r="N110" s="52" t="s">
         <v>16</v>
       </c>
@@ -4023,25 +4028,25 @@
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
-      <c r="J111" s="68" t="s">
+      <c r="J111" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="K111" s="115" t="s">
+      <c r="K111" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="L111" s="116"/>
-      <c r="M111" s="117"/>
+      <c r="L111" s="109"/>
+      <c r="M111" s="110"/>
       <c r="N111" s="59" t="s">
         <v>16</v>
       </c>
       <c r="O111" s="57">
         <v>2</v>
       </c>
-      <c r="P111" s="118" t="s">
+      <c r="P111" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="Q111" s="119"/>
-      <c r="R111" s="77"/>
+      <c r="Q111" s="118"/>
+      <c r="R111" s="75"/>
       <c r="S111" s="4"/>
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
@@ -4058,11 +4063,11 @@
       <c r="J112" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K112" s="120" t="s">
+      <c r="K112" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="L112" s="120"/>
-      <c r="M112" s="120"/>
+      <c r="L112" s="106"/>
+      <c r="M112" s="106"/>
       <c r="N112" s="54" t="s">
         <v>22</v>
       </c>
@@ -4103,24 +4108,24 @@
     </row>
     <row r="114" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C114" s="25"/>
-      <c r="D114" s="78"/>
-      <c r="E114" s="78"/>
-      <c r="F114" s="78"/>
-      <c r="G114" s="78"/>
-      <c r="H114" s="78"/>
-      <c r="I114" s="78"/>
-      <c r="J114" s="78"/>
-      <c r="K114" s="78"/>
-      <c r="L114" s="78"/>
-      <c r="M114" s="78"/>
-      <c r="N114" s="78"/>
-      <c r="O114" s="78"/>
-      <c r="P114" s="78"/>
-      <c r="Q114" s="78"/>
-      <c r="R114" s="78"/>
-      <c r="S114" s="78"/>
-      <c r="T114" s="78"/>
-      <c r="U114" s="78"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+      <c r="K114" s="76"/>
+      <c r="L114" s="76"/>
+      <c r="M114" s="76"/>
+      <c r="N114" s="76"/>
+      <c r="O114" s="76"/>
+      <c r="P114" s="76"/>
+      <c r="Q114" s="76"/>
+      <c r="R114" s="76"/>
+      <c r="S114" s="76"/>
+      <c r="T114" s="76"/>
+      <c r="U114" s="76"/>
       <c r="V114" s="18"/>
     </row>
     <row r="116" spans="3:22" ht="21" x14ac:dyDescent="0.35">
@@ -4129,103 +4134,95 @@
       </c>
     </row>
     <row r="117" spans="3:22" ht="21" x14ac:dyDescent="0.3">
-      <c r="D117" s="102" t="s">
+      <c r="D117" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="E117" s="102"/>
-      <c r="F117" s="102"/>
-      <c r="G117" s="102"/>
-      <c r="H117" s="102"/>
-      <c r="I117" s="102"/>
-      <c r="J117" s="102"/>
-      <c r="K117" s="102"/>
-      <c r="L117" s="102"/>
-      <c r="M117" s="102"/>
-      <c r="N117" s="102"/>
-      <c r="O117" s="102"/>
-      <c r="P117" s="102"/>
-      <c r="Q117" s="102"/>
-      <c r="R117" s="102"/>
-      <c r="S117" s="102"/>
-      <c r="T117" s="102"/>
-      <c r="U117" s="102"/>
-      <c r="V117" s="102"/>
+      <c r="E117" s="111"/>
+      <c r="F117" s="111"/>
+      <c r="G117" s="111"/>
+      <c r="H117" s="111"/>
+      <c r="I117" s="111"/>
+      <c r="J117" s="111"/>
+      <c r="K117" s="111"/>
+      <c r="L117" s="111"/>
+      <c r="M117" s="111"/>
+      <c r="N117" s="111"/>
+      <c r="O117" s="111"/>
+      <c r="P117" s="111"/>
+      <c r="Q117" s="111"/>
+      <c r="R117" s="111"/>
+      <c r="S117" s="111"/>
+      <c r="T117" s="111"/>
+      <c r="U117" s="111"/>
+      <c r="V117" s="111"/>
     </row>
     <row r="118" spans="3:22" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D118" s="103" t="s">
+      <c r="D118" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="E118" s="103"/>
-      <c r="F118" s="103"/>
-      <c r="G118" s="103"/>
-      <c r="H118" s="103"/>
-      <c r="I118" s="103"/>
-      <c r="J118" s="103"/>
-      <c r="K118" s="103"/>
-      <c r="L118" s="103"/>
-      <c r="M118" s="103"/>
-      <c r="N118" s="103"/>
-      <c r="O118" s="103"/>
-      <c r="P118" s="103"/>
-      <c r="Q118" s="103"/>
-      <c r="R118" s="103"/>
-      <c r="S118" s="103"/>
-      <c r="T118" s="103"/>
-      <c r="U118" s="103"/>
-      <c r="V118" s="103"/>
+      <c r="E118" s="122"/>
+      <c r="F118" s="122"/>
+      <c r="G118" s="122"/>
+      <c r="H118" s="122"/>
+      <c r="I118" s="122"/>
+      <c r="J118" s="122"/>
+      <c r="K118" s="122"/>
+      <c r="L118" s="122"/>
+      <c r="M118" s="122"/>
+      <c r="N118" s="122"/>
+      <c r="O118" s="122"/>
+      <c r="P118" s="122"/>
+      <c r="Q118" s="122"/>
+      <c r="R118" s="122"/>
+      <c r="S118" s="122"/>
+      <c r="T118" s="122"/>
+      <c r="U118" s="122"/>
+      <c r="V118" s="122"/>
     </row>
     <row r="119" spans="3:22" ht="21" x14ac:dyDescent="0.3">
-      <c r="D119" s="102" t="s">
+      <c r="D119" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="E119" s="102"/>
-      <c r="F119" s="102"/>
-      <c r="G119" s="102"/>
-      <c r="H119" s="102"/>
-      <c r="I119" s="102"/>
-      <c r="J119" s="102"/>
-      <c r="K119" s="102"/>
-      <c r="L119" s="102"/>
-      <c r="M119" s="102"/>
-      <c r="N119" s="102"/>
-      <c r="O119" s="102"/>
-      <c r="P119" s="102"/>
-      <c r="Q119" s="102"/>
-      <c r="R119" s="102"/>
-      <c r="S119" s="102"/>
-      <c r="T119" s="102"/>
-      <c r="U119" s="102"/>
-      <c r="V119" s="102"/>
+      <c r="E119" s="111"/>
+      <c r="F119" s="111"/>
+      <c r="G119" s="111"/>
+      <c r="H119" s="111"/>
+      <c r="I119" s="111"/>
+      <c r="J119" s="111"/>
+      <c r="K119" s="111"/>
+      <c r="L119" s="111"/>
+      <c r="M119" s="111"/>
+      <c r="N119" s="111"/>
+      <c r="O119" s="111"/>
+      <c r="P119" s="111"/>
+      <c r="Q119" s="111"/>
+      <c r="R119" s="111"/>
+      <c r="S119" s="111"/>
+      <c r="T119" s="111"/>
+      <c r="U119" s="111"/>
+      <c r="V119" s="111"/>
     </row>
     <row r="120" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D120" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D117:V117"/>
+    <mergeCell ref="D118:V118"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="K103:M103"/>
+    <mergeCell ref="K104:M104"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="K89:M89"/>
     <mergeCell ref="D119:V119"/>
     <mergeCell ref="R8:U8"/>
     <mergeCell ref="R7:U7"/>
@@ -4242,22 +4239,30 @@
     <mergeCell ref="P111:Q111"/>
     <mergeCell ref="K112:M112"/>
     <mergeCell ref="K102:M102"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D117:V117"/>
-    <mergeCell ref="D118:V118"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="K103:M103"/>
-    <mergeCell ref="K104:M104"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="K40:M40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="35" orientation="portrait" r:id="rId1"/>

--- a/docs/images/ntrace_message_generation_example_source.xlsx
+++ b/docs/images/ntrace_message_generation_example_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nxa16392\Documents\riscv\ntrace_docs\doc_images_june_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80743490-1F2F-45C6-91D0-604A4391D7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5310A35-BBFB-4156-B4C2-1E97FDEFA272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33540" yWindow="3570" windowWidth="30435" windowHeight="15825" xr2:uid="{086EC86F-6431-4D9B-95E7-688D8015CA7E}"/>
   </bookViews>
@@ -495,7 +495,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -817,7 +817,61 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -827,10 +881,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -844,7 +911,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -853,141 +920,106 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -999,7 +1031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1045,8 +1077,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1075,44 +1105,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1190,39 +1220,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1235,27 +1256,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1575,189 +1616,191 @@
   </sheetPr>
   <dimension ref="B1:AA120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="2.140625" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="2.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="2.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="9.140625" collapsed="1"/>
     <col min="6" max="6" width="6.42578125" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
     <col min="17" max="17" width="9.5703125" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="22" max="22" width="2.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="2.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="3:22" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
       <c r="Q2" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="119" t="s">
+      <c r="R2" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="121"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="116"/>
     </row>
     <row r="3" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="Q3" s="33" t="s">
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="Q3" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="112" t="s">
+      <c r="R3" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="114"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="130"/>
     </row>
     <row r="4" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="Q4" s="34" t="s">
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="Q4" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="112" t="s">
+      <c r="R4" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="113"/>
-      <c r="T4" s="113"/>
-      <c r="U4" s="114"/>
+      <c r="S4" s="133"/>
+      <c r="T4" s="133"/>
+      <c r="U4" s="134"/>
     </row>
     <row r="5" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="Q5" s="34" t="s">
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="Q5" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="112" t="s">
+      <c r="R5" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="114"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="133"/>
+      <c r="U5" s="134"/>
     </row>
     <row r="6" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="Q6" s="34" t="s">
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="Q6" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="112" t="s">
+      <c r="R6" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="113"/>
-      <c r="T6" s="113"/>
-      <c r="U6" s="114"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133"/>
+      <c r="U6" s="134"/>
     </row>
     <row r="7" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="Q7" s="34" t="s">
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="Q7" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="112" t="s">
+      <c r="R7" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="S7" s="113"/>
-      <c r="T7" s="113"/>
-      <c r="U7" s="114"/>
+      <c r="S7" s="133"/>
+      <c r="T7" s="133"/>
+      <c r="U7" s="134"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="Q8" s="34" t="s">
+      <c r="Q8" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="112" t="s">
+      <c r="R8" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="114"/>
+      <c r="S8" s="133"/>
+      <c r="T8" s="133"/>
+      <c r="U8" s="134"/>
     </row>
     <row r="9" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q9" s="35" t="s">
+      <c r="Q9" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="R9" s="45" t="s">
+      <c r="R9" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="S9" s="43"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="46"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="44"/>
     </row>
     <row r="10" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="L10" s="4"/>
@@ -1778,7 +1821,7 @@
       <c r="R11" s="4"/>
     </row>
     <row r="12" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="67"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="8"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1789,7 +1832,7 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="67"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="8"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1814,8 +1857,8 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="67"/>
+    <row r="15" spans="3:22" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="65"/>
       <c r="E15" s="8"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1825,31 +1868,31 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C16" s="31"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="69"/>
-    </row>
-    <row r="17" spans="3:27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="67"/>
+    </row>
+    <row r="17" spans="3:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C17" s="26"/>
-      <c r="D17" s="84"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="13"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1869,7 +1912,7 @@
       <c r="U17" s="4"/>
       <c r="V17" s="15"/>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:27" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C18" s="26"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1901,11 +1944,11 @@
     </row>
     <row r="19" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C19" s="26"/>
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="95"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="93"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1921,13 +1964,13 @@
       <c r="S19" s="5"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="93"/>
+      <c r="V19" s="91"/>
     </row>
     <row r="20" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C20" s="26"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="95"/>
+      <c r="F20" s="93"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1943,37 +1986,37 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="93"/>
+      <c r="V20" s="91"/>
     </row>
     <row r="21" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C21" s="26"/>
-      <c r="D21" s="99" t="s">
+      <c r="D21" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71" t="s">
+      <c r="E21" s="97"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="81" t="s">
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72" t="s">
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="94"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="92"/>
     </row>
     <row r="22" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="26"/>
@@ -2006,15 +2049,15 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="19"/>
-      <c r="K23" s="100" t="s">
+      <c r="K23" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="101"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="103" t="s">
+      <c r="L23" s="99"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="O23" s="104"/>
+      <c r="O23" s="102"/>
       <c r="P23" s="20"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="4"/>
@@ -2031,15 +2074,15 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="39" t="s">
+      <c r="J24" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="105" t="s">
+      <c r="K24" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="52" t="s">
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="50" t="s">
         <v>16</v>
       </c>
       <c r="O24" s="28">
@@ -2063,24 +2106,24 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="47" t="s">
+      <c r="J25" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="98" t="s">
+      <c r="K25" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="53" t="s">
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="O25" s="48">
+      <c r="O25" s="46">
         <v>0</v>
       </c>
-      <c r="P25" s="49" t="s">
+      <c r="P25" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="50"/>
+      <c r="Q25" s="48"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
@@ -2095,24 +2138,24 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="47" t="s">
+      <c r="J26" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="98" t="s">
+      <c r="K26" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="53" t="s">
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="O26" s="48">
+      <c r="O26" s="46">
         <v>3</v>
       </c>
-      <c r="P26" s="51" t="s">
+      <c r="P26" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="Q26" s="50"/>
+      <c r="Q26" s="48"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
@@ -2127,15 +2170,15 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="40" t="s">
+      <c r="J27" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="106" t="s">
+      <c r="K27" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="54" t="s">
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="52" t="s">
         <v>22</v>
       </c>
       <c r="O27" s="29">
@@ -2151,55 +2194,56 @@
       <c r="U27" s="4"/>
       <c r="V27" s="15"/>
     </row>
-    <row r="28" spans="3:27" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C28" s="26"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="97"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="95"/>
       <c r="W28" s="27"/>
       <c r="X28" s="27"/>
       <c r="Y28" s="27"/>
       <c r="Z28" s="27"/>
       <c r="AA28" s="27"/>
     </row>
-    <row r="29" spans="3:27" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:27" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="25"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
       <c r="N29" s="16"/>
-      <c r="O29" s="88"/>
+      <c r="O29" s="86"/>
       <c r="P29" s="17"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="76"/>
-      <c r="S29" s="76"/>
-      <c r="T29" s="76"/>
-      <c r="U29" s="76"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="74"/>
+      <c r="U29" s="74"/>
       <c r="V29" s="18"/>
     </row>
+    <row r="30" spans="3:27" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D31" s="12" t="s">
         <v>6</v>
@@ -2210,35 +2254,35 @@
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
     </row>
-    <row r="32" spans="3:27" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="67"/>
+    <row r="32" spans="3:27" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="65"/>
       <c r="E32" s="8"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
     </row>
-    <row r="33" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C33" s="31"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="89"/>
-      <c r="U33" s="89"/>
-      <c r="V33" s="69"/>
-    </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D33" s="76"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="67"/>
+    </row>
+    <row r="34" spans="3:22" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C34" s="26"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2268,11 +2312,11 @@
     </row>
     <row r="35" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C35" s="26"/>
-      <c r="D35" s="70" t="s">
+      <c r="D35" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="90"/>
-      <c r="F35" s="95"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="93"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2294,7 +2338,7 @@
       <c r="C36" s="26"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="95"/>
+      <c r="F36" s="93"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2310,37 +2354,37 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
-      <c r="V36" s="93"/>
+      <c r="V36" s="91"/>
     </row>
     <row r="37" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C37" s="26"/>
-      <c r="D37" s="70" t="s">
+      <c r="D37" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="90"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71" t="s">
+      <c r="E37" s="88"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="81" t="s">
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="80"/>
-      <c r="P37" s="80"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72" t="s">
+      <c r="O37" s="78"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="S37" s="72"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="94"/>
+      <c r="S37" s="70"/>
+      <c r="T37" s="70"/>
+      <c r="U37" s="70"/>
+      <c r="V37" s="92"/>
     </row>
     <row r="38" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="26"/>
@@ -2373,15 +2417,15 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="19"/>
-      <c r="K39" s="100" t="s">
+      <c r="K39" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="101"/>
-      <c r="M39" s="102"/>
-      <c r="N39" s="103" t="s">
+      <c r="L39" s="99"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="O39" s="104"/>
+      <c r="O39" s="102"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="4"/>
@@ -2398,15 +2442,15 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="42" t="s">
+      <c r="J40" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="107" t="s">
+      <c r="K40" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="L40" s="107"/>
-      <c r="M40" s="107"/>
-      <c r="N40" s="55" t="s">
+      <c r="L40" s="105"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="53" t="s">
         <v>22</v>
       </c>
       <c r="O40" s="30">
@@ -2416,7 +2460,7 @@
         <v>24</v>
       </c>
       <c r="Q40" s="15"/>
-      <c r="R40" s="82"/>
+      <c r="R40" s="80"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
@@ -2430,24 +2474,24 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="47" t="s">
+      <c r="J41" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K41" s="98" t="s">
+      <c r="K41" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="L41" s="98"/>
-      <c r="M41" s="98"/>
-      <c r="N41" s="53" t="s">
+      <c r="L41" s="96"/>
+      <c r="M41" s="96"/>
+      <c r="N41" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="O41" s="48">
+      <c r="O41" s="46">
         <v>3</v>
       </c>
-      <c r="P41" s="51" t="s">
+      <c r="P41" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="Q41" s="50"/>
+      <c r="Q41" s="48"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
@@ -2462,15 +2506,15 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="40" t="s">
+      <c r="J42" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="106" t="s">
+      <c r="K42" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="L42" s="106"/>
-      <c r="M42" s="106"/>
-      <c r="N42" s="54" t="s">
+      <c r="L42" s="104"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="52" t="s">
         <v>22</v>
       </c>
       <c r="O42" s="29">
@@ -2486,7 +2530,7 @@
       <c r="U42" s="4"/>
       <c r="V42" s="15"/>
     </row>
-    <row r="43" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C43" s="26"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2494,8 +2538,8 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="74"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="72"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -2508,33 +2552,33 @@
       <c r="U43" s="4"/>
       <c r="V43" s="15"/>
     </row>
-    <row r="44" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:22" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="25"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="92"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76"/>
-      <c r="R44" s="76"/>
-      <c r="S44" s="76"/>
-      <c r="T44" s="76"/>
-      <c r="U44" s="76"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="74"/>
+      <c r="S44" s="74"/>
+      <c r="T44" s="74"/>
+      <c r="U44" s="74"/>
       <c r="V44" s="18"/>
     </row>
-    <row r="45" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="J45" s="11"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:22" collapsed="1" x14ac:dyDescent="0.25">
       <c r="J46" s="11"/>
       <c r="K46" s="10"/>
     </row>
@@ -2546,35 +2590,35 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="67"/>
+    <row r="48" spans="3:22" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="65"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C49" s="31"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="68"/>
-      <c r="N49" s="68"/>
-      <c r="O49" s="68"/>
-      <c r="P49" s="68"/>
-      <c r="Q49" s="68"/>
-      <c r="R49" s="68"/>
-      <c r="S49" s="68"/>
-      <c r="T49" s="68"/>
-      <c r="U49" s="68"/>
-      <c r="V49" s="69"/>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D49" s="76"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="66"/>
+      <c r="N49" s="66"/>
+      <c r="O49" s="66"/>
+      <c r="P49" s="66"/>
+      <c r="Q49" s="66"/>
+      <c r="R49" s="66"/>
+      <c r="S49" s="66"/>
+      <c r="T49" s="66"/>
+      <c r="U49" s="66"/>
+      <c r="V49" s="67"/>
+    </row>
+    <row r="50" spans="3:22" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C50" s="26"/>
-      <c r="D50" s="95"/>
+      <c r="D50" s="93"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -2602,11 +2646,11 @@
     </row>
     <row r="51" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C51" s="26"/>
-      <c r="D51" s="70" t="s">
+      <c r="D51" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="90"/>
-      <c r="F51" s="95"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="93"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -2628,7 +2672,7 @@
       <c r="C52" s="26"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="95"/>
+      <c r="F52" s="93"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -2644,37 +2688,37 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
-      <c r="V52" s="93"/>
+      <c r="V52" s="91"/>
     </row>
     <row r="53" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C53" s="26"/>
-      <c r="D53" s="70" t="s">
+      <c r="D53" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="90"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71" t="s">
+      <c r="E53" s="88"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="71"/>
-      <c r="M53" s="80"/>
-      <c r="N53" s="81" t="s">
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="78"/>
+      <c r="N53" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="O53" s="80"/>
-      <c r="P53" s="80"/>
-      <c r="Q53" s="72"/>
-      <c r="R53" s="72" t="s">
+      <c r="O53" s="78"/>
+      <c r="P53" s="78"/>
+      <c r="Q53" s="70"/>
+      <c r="R53" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="S53" s="72"/>
-      <c r="T53" s="72"/>
-      <c r="U53" s="72"/>
-      <c r="V53" s="94"/>
+      <c r="S53" s="70"/>
+      <c r="T53" s="70"/>
+      <c r="U53" s="70"/>
+      <c r="V53" s="92"/>
     </row>
     <row r="54" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="26"/>
@@ -2707,15 +2751,15 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="19"/>
-      <c r="K55" s="100" t="s">
+      <c r="K55" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="L55" s="101"/>
-      <c r="M55" s="102"/>
-      <c r="N55" s="103" t="s">
+      <c r="L55" s="99"/>
+      <c r="M55" s="100"/>
+      <c r="N55" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="O55" s="104"/>
+      <c r="O55" s="102"/>
       <c r="P55" s="20"/>
       <c r="Q55" s="21"/>
       <c r="R55" s="4"/>
@@ -2732,15 +2776,15 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="39" t="s">
+      <c r="J56" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="105" t="s">
+      <c r="K56" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="L56" s="105"/>
-      <c r="M56" s="105"/>
-      <c r="N56" s="52" t="s">
+      <c r="L56" s="103"/>
+      <c r="M56" s="103"/>
+      <c r="N56" s="50" t="s">
         <v>16</v>
       </c>
       <c r="O56" s="28">
@@ -2764,24 +2808,24 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="47" t="s">
+      <c r="J57" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="K57" s="98" t="s">
+      <c r="K57" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="L57" s="98"/>
-      <c r="M57" s="98"/>
-      <c r="N57" s="53" t="s">
+      <c r="L57" s="96"/>
+      <c r="M57" s="96"/>
+      <c r="N57" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="O57" s="48">
+      <c r="O57" s="46">
         <v>0</v>
       </c>
-      <c r="P57" s="49" t="s">
+      <c r="P57" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="Q57" s="50"/>
+      <c r="Q57" s="48"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
@@ -2796,15 +2840,15 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="128" t="s">
+      <c r="J58" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="126" t="s">
+      <c r="K58" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="L58" s="126"/>
-      <c r="M58" s="126"/>
-      <c r="N58" s="54" t="s">
+      <c r="L58" s="121"/>
+      <c r="M58" s="121"/>
+      <c r="N58" s="52" t="s">
         <v>22</v>
       </c>
       <c r="O58" s="29">
@@ -2813,14 +2857,14 @@
       <c r="P58" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="Q58" s="131"/>
+      <c r="Q58" s="126"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="15"/>
     </row>
-    <row r="59" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C59" s="26"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -2833,7 +2877,7 @@
       <c r="L59" s="22"/>
       <c r="M59" s="22"/>
       <c r="N59" s="14"/>
-      <c r="O59" s="85"/>
+      <c r="O59" s="83"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
@@ -2842,28 +2886,29 @@
       <c r="U59" s="4"/>
       <c r="V59" s="15"/>
     </row>
-    <row r="60" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:22" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C60" s="25"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="86"/>
-      <c r="K60" s="87"/>
-      <c r="L60" s="87"/>
-      <c r="M60" s="87"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="84"/>
+      <c r="K60" s="85"/>
+      <c r="L60" s="85"/>
+      <c r="M60" s="85"/>
       <c r="N60" s="16"/>
-      <c r="O60" s="88"/>
+      <c r="O60" s="86"/>
       <c r="P60" s="17"/>
-      <c r="Q60" s="76"/>
-      <c r="R60" s="76"/>
-      <c r="S60" s="76"/>
-      <c r="T60" s="76"/>
-      <c r="U60" s="76"/>
+      <c r="Q60" s="74"/>
+      <c r="R60" s="74"/>
+      <c r="S60" s="74"/>
+      <c r="T60" s="74"/>
+      <c r="U60" s="74"/>
       <c r="V60" s="18"/>
     </row>
+    <row r="61" spans="3:22" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D62" s="12" t="s">
         <v>8</v>
@@ -2879,8 +2924,8 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="67"/>
+    <row r="63" spans="3:22" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="65"/>
       <c r="E63" s="27"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
@@ -2890,29 +2935,29 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C64" s="31"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="68"/>
-      <c r="L64" s="68"/>
-      <c r="M64" s="68"/>
-      <c r="N64" s="68"/>
-      <c r="O64" s="68"/>
-      <c r="P64" s="68"/>
-      <c r="Q64" s="68"/>
-      <c r="R64" s="68"/>
-      <c r="S64" s="68"/>
-      <c r="T64" s="68"/>
-      <c r="U64" s="68"/>
-      <c r="V64" s="69"/>
-    </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D64" s="76"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
+      <c r="M64" s="66"/>
+      <c r="N64" s="66"/>
+      <c r="O64" s="66"/>
+      <c r="P64" s="66"/>
+      <c r="Q64" s="66"/>
+      <c r="R64" s="66"/>
+      <c r="S64" s="66"/>
+      <c r="T64" s="66"/>
+      <c r="U64" s="66"/>
+      <c r="V64" s="67"/>
+    </row>
+    <row r="65" spans="3:22" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C65" s="26"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -2946,11 +2991,11 @@
     </row>
     <row r="66" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C66" s="26"/>
-      <c r="D66" s="70" t="s">
+      <c r="D66" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="70"/>
-      <c r="F66" s="95"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="93"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -2972,7 +3017,7 @@
       <c r="C67" s="26"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="95"/>
+      <c r="F67" s="93"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -2988,37 +3033,37 @@
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
-      <c r="V67" s="93"/>
+      <c r="V67" s="91"/>
     </row>
     <row r="68" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C68" s="26"/>
-      <c r="D68" s="70" t="s">
+      <c r="D68" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="70"/>
-      <c r="F68" s="95"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71" t="s">
+      <c r="E68" s="68"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="I68" s="71"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="71"/>
-      <c r="M68" s="80"/>
-      <c r="N68" s="81" t="s">
+      <c r="I68" s="69"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="69"/>
+      <c r="M68" s="78"/>
+      <c r="N68" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="O68" s="80"/>
-      <c r="P68" s="80"/>
-      <c r="Q68" s="72"/>
-      <c r="R68" s="72" t="s">
+      <c r="O68" s="78"/>
+      <c r="P68" s="78"/>
+      <c r="Q68" s="70"/>
+      <c r="R68" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="S68" s="72"/>
-      <c r="T68" s="72"/>
-      <c r="U68" s="72"/>
-      <c r="V68" s="94"/>
+      <c r="S68" s="70"/>
+      <c r="T68" s="70"/>
+      <c r="U68" s="70"/>
+      <c r="V68" s="92"/>
     </row>
     <row r="69" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C69" s="26"/>
@@ -3051,15 +3096,15 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="19"/>
-      <c r="K70" s="100" t="s">
+      <c r="K70" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="L70" s="101"/>
-      <c r="M70" s="102"/>
-      <c r="N70" s="103" t="s">
+      <c r="L70" s="99"/>
+      <c r="M70" s="100"/>
+      <c r="N70" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="O70" s="104"/>
+      <c r="O70" s="102"/>
       <c r="P70" s="20"/>
       <c r="Q70" s="21"/>
       <c r="R70" s="4"/>
@@ -3076,15 +3121,15 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="39" t="s">
+      <c r="J71" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="K71" s="105" t="s">
+      <c r="K71" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="L71" s="105"/>
-      <c r="M71" s="105"/>
-      <c r="N71" s="52" t="s">
+      <c r="L71" s="103"/>
+      <c r="M71" s="103"/>
+      <c r="N71" s="50" t="s">
         <v>16</v>
       </c>
       <c r="O71" s="28">
@@ -3108,24 +3153,24 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="47" t="s">
+      <c r="J72" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="98" t="s">
+      <c r="K72" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="L72" s="98"/>
-      <c r="M72" s="98"/>
-      <c r="N72" s="53" t="s">
+      <c r="L72" s="96"/>
+      <c r="M72" s="96"/>
+      <c r="N72" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="O72" s="48">
+      <c r="O72" s="46">
         <v>0</v>
       </c>
-      <c r="P72" s="49" t="s">
+      <c r="P72" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="Q72" s="50"/>
+      <c r="Q72" s="48"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
@@ -3140,15 +3185,15 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="41" t="s">
+      <c r="J73" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K73" s="105" t="s">
+      <c r="K73" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="L73" s="105"/>
-      <c r="M73" s="105"/>
-      <c r="N73" s="58" t="s">
+      <c r="L73" s="103"/>
+      <c r="M73" s="103"/>
+      <c r="N73" s="56" t="s">
         <v>16</v>
       </c>
       <c r="O73" s="30">
@@ -3172,24 +3217,24 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="56" t="s">
+      <c r="J74" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="K74" s="108" t="s">
+      <c r="K74" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="L74" s="109"/>
-      <c r="M74" s="110"/>
-      <c r="N74" s="59" t="s">
+      <c r="L74" s="107"/>
+      <c r="M74" s="108"/>
+      <c r="N74" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="O74" s="57">
+      <c r="O74" s="55">
         <v>6</v>
       </c>
-      <c r="P74" s="123" t="s">
+      <c r="P74" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="Q74" s="124"/>
+      <c r="Q74" s="119"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
@@ -3204,15 +3249,15 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
-      <c r="J75" s="40" t="s">
+      <c r="J75" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K75" s="106" t="s">
+      <c r="K75" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="L75" s="106"/>
-      <c r="M75" s="106"/>
-      <c r="N75" s="54" t="s">
+      <c r="L75" s="104"/>
+      <c r="M75" s="104"/>
+      <c r="N75" s="52" t="s">
         <v>22</v>
       </c>
       <c r="O75" s="29">
@@ -3228,7 +3273,7 @@
       <c r="U75" s="4"/>
       <c r="V75" s="15"/>
     </row>
-    <row r="76" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C76" s="26"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -3250,28 +3295,29 @@
       <c r="U76" s="4"/>
       <c r="V76" s="15"/>
     </row>
-    <row r="77" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:22" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C77" s="25"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="76"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="76"/>
-      <c r="K77" s="76"/>
-      <c r="L77" s="76"/>
-      <c r="M77" s="76"/>
-      <c r="N77" s="76"/>
-      <c r="O77" s="76"/>
-      <c r="P77" s="76"/>
-      <c r="Q77" s="76"/>
-      <c r="R77" s="76"/>
-      <c r="S77" s="76"/>
-      <c r="T77" s="76"/>
-      <c r="U77" s="76"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="74"/>
+      <c r="K77" s="74"/>
+      <c r="L77" s="74"/>
+      <c r="M77" s="74"/>
+      <c r="N77" s="74"/>
+      <c r="O77" s="74"/>
+      <c r="P77" s="74"/>
+      <c r="Q77" s="74"/>
+      <c r="R77" s="74"/>
+      <c r="S77" s="74"/>
+      <c r="T77" s="74"/>
+      <c r="U77" s="74"/>
       <c r="V77" s="18"/>
     </row>
+    <row r="78" spans="3:22" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D79" s="12" t="s">
         <v>9</v>
@@ -3280,34 +3326,34 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="67"/>
+    <row r="80" spans="3:22" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="65"/>
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="3:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C81" s="31"/>
-      <c r="D81" s="78"/>
-      <c r="E81" s="79"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="68"/>
-      <c r="H81" s="68"/>
-      <c r="I81" s="68"/>
-      <c r="J81" s="68"/>
-      <c r="K81" s="68"/>
-      <c r="L81" s="68"/>
-      <c r="M81" s="68"/>
-      <c r="N81" s="68"/>
-      <c r="O81" s="68"/>
-      <c r="P81" s="68"/>
-      <c r="Q81" s="68"/>
-      <c r="R81" s="68"/>
-      <c r="S81" s="68"/>
-      <c r="T81" s="68"/>
-      <c r="U81" s="68"/>
-      <c r="V81" s="69"/>
+      <c r="D81" s="76"/>
+      <c r="E81" s="77"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="66"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="66"/>
+      <c r="L81" s="66"/>
+      <c r="M81" s="66"/>
+      <c r="N81" s="66"/>
+      <c r="O81" s="66"/>
+      <c r="P81" s="66"/>
+      <c r="Q81" s="66"/>
+      <c r="R81" s="66"/>
+      <c r="S81" s="66"/>
+      <c r="T81" s="66"/>
+      <c r="U81" s="66"/>
+      <c r="V81" s="67"/>
       <c r="W81" s="4"/>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:24" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C82" s="26"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -3336,11 +3382,11 @@
     </row>
     <row r="83" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C83" s="26"/>
-      <c r="D83" s="70" t="s">
+      <c r="D83" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E83" s="70"/>
-      <c r="F83" s="95"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="93"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -3364,7 +3410,7 @@
       <c r="C84" s="26"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="95"/>
+      <c r="F84" s="93"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
@@ -3380,39 +3426,39 @@
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
-      <c r="V84" s="93"/>
+      <c r="V84" s="91"/>
       <c r="W84" s="4"/>
       <c r="X84" s="4"/>
     </row>
     <row r="85" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C85" s="26"/>
-      <c r="D85" s="70" t="s">
+      <c r="D85" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="70"/>
-      <c r="F85" s="95"/>
-      <c r="G85" s="71"/>
-      <c r="H85" s="71" t="s">
+      <c r="E85" s="68"/>
+      <c r="F85" s="93"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="I85" s="71"/>
-      <c r="J85" s="71"/>
-      <c r="K85" s="80"/>
-      <c r="L85" s="80"/>
-      <c r="M85" s="80"/>
-      <c r="N85" s="81" t="s">
+      <c r="I85" s="69"/>
+      <c r="J85" s="69"/>
+      <c r="K85" s="78"/>
+      <c r="L85" s="78"/>
+      <c r="M85" s="78"/>
+      <c r="N85" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="O85" s="80"/>
-      <c r="P85" s="80"/>
-      <c r="Q85" s="72"/>
-      <c r="R85" s="72" t="s">
+      <c r="O85" s="78"/>
+      <c r="P85" s="78"/>
+      <c r="Q85" s="70"/>
+      <c r="R85" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="S85" s="72"/>
-      <c r="T85" s="72"/>
-      <c r="U85" s="72"/>
-      <c r="V85" s="94"/>
+      <c r="S85" s="70"/>
+      <c r="T85" s="70"/>
+      <c r="U85" s="70"/>
+      <c r="V85" s="92"/>
       <c r="W85" s="4"/>
       <c r="X85" s="4"/>
     </row>
@@ -3449,15 +3495,15 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="19"/>
-      <c r="K87" s="100" t="s">
+      <c r="K87" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="L87" s="101"/>
-      <c r="M87" s="102"/>
-      <c r="N87" s="103" t="s">
+      <c r="L87" s="99"/>
+      <c r="M87" s="100"/>
+      <c r="N87" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="O87" s="104"/>
+      <c r="O87" s="102"/>
       <c r="P87" s="20"/>
       <c r="Q87" s="21"/>
       <c r="R87" s="4"/>
@@ -3476,25 +3522,25 @@
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-      <c r="J88" s="127" t="s">
+      <c r="J88" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="K88" s="125" t="s">
+      <c r="K88" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="L88" s="125"/>
-      <c r="M88" s="125"/>
-      <c r="N88" s="62" t="s">
+      <c r="L88" s="120"/>
+      <c r="M88" s="120"/>
+      <c r="N88" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="O88" s="63">
+      <c r="O88" s="61">
         <v>0</v>
       </c>
-      <c r="P88" s="129" t="s">
+      <c r="P88" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="Q88" s="64"/>
-      <c r="R88" s="82"/>
+      <c r="Q88" s="62"/>
+      <c r="R88" s="80"/>
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
@@ -3510,25 +3556,25 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-      <c r="J89" s="128" t="s">
+      <c r="J89" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="K89" s="126" t="s">
+      <c r="K89" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="L89" s="126"/>
-      <c r="M89" s="126"/>
-      <c r="N89" s="54" t="s">
+      <c r="L89" s="121"/>
+      <c r="M89" s="121"/>
+      <c r="N89" s="52" t="s">
         <v>22</v>
       </c>
       <c r="O89" s="29">
         <v>4</v>
       </c>
-      <c r="P89" s="130" t="s">
+      <c r="P89" s="125" t="s">
         <v>25</v>
       </c>
       <c r="Q89" s="18"/>
-      <c r="R89" s="82"/>
+      <c r="R89" s="80"/>
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
@@ -3536,7 +3582,7 @@
       <c r="W89" s="4"/>
       <c r="X89" s="4"/>
     </row>
-    <row r="90" spans="3:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C90" s="26"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -3545,7 +3591,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="74"/>
+      <c r="K90" s="72"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
@@ -3560,31 +3606,31 @@
       <c r="W90" s="4"/>
       <c r="X90" s="4"/>
     </row>
-    <row r="91" spans="3:24" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:24" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C91" s="25"/>
-      <c r="D91" s="76"/>
-      <c r="E91" s="76"/>
-      <c r="F91" s="76"/>
-      <c r="G91" s="76"/>
-      <c r="H91" s="76"/>
-      <c r="I91" s="76"/>
-      <c r="J91" s="76"/>
-      <c r="K91" s="83"/>
-      <c r="L91" s="76"/>
-      <c r="M91" s="76"/>
-      <c r="N91" s="76"/>
-      <c r="O91" s="76"/>
-      <c r="P91" s="76"/>
-      <c r="Q91" s="76"/>
-      <c r="R91" s="76"/>
-      <c r="S91" s="76"/>
-      <c r="T91" s="76"/>
-      <c r="U91" s="76"/>
+      <c r="D91" s="74"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="74"/>
+      <c r="H91" s="74"/>
+      <c r="I91" s="74"/>
+      <c r="J91" s="74"/>
+      <c r="K91" s="81"/>
+      <c r="L91" s="74"/>
+      <c r="M91" s="74"/>
+      <c r="N91" s="74"/>
+      <c r="O91" s="74"/>
+      <c r="P91" s="74"/>
+      <c r="Q91" s="74"/>
+      <c r="R91" s="74"/>
+      <c r="S91" s="74"/>
+      <c r="T91" s="74"/>
+      <c r="U91" s="74"/>
       <c r="V91" s="18"/>
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:24" collapsed="1" x14ac:dyDescent="0.25">
       <c r="K92" s="10"/>
     </row>
     <row r="93" spans="3:24" x14ac:dyDescent="0.25">
@@ -3602,8 +3648,8 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="3:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D94" s="67"/>
+    <row r="94" spans="3:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D94" s="65"/>
       <c r="E94" s="27"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
@@ -3613,8 +3659,8 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="3:24" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D95" s="67"/>
+    <row r="95" spans="3:24" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D95" s="65"/>
       <c r="E95" s="27"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
@@ -3624,29 +3670,29 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="3:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C96" s="31"/>
-      <c r="D96" s="78"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="68"/>
-      <c r="G96" s="68"/>
-      <c r="H96" s="68"/>
-      <c r="I96" s="68"/>
-      <c r="J96" s="68"/>
-      <c r="K96" s="68"/>
-      <c r="L96" s="68"/>
-      <c r="M96" s="68"/>
-      <c r="N96" s="68"/>
-      <c r="O96" s="68"/>
-      <c r="P96" s="68"/>
-      <c r="Q96" s="68"/>
-      <c r="R96" s="68"/>
-      <c r="S96" s="68"/>
-      <c r="T96" s="68"/>
-      <c r="U96" s="68"/>
-      <c r="V96" s="69"/>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D96" s="76"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="66"/>
+      <c r="J96" s="66"/>
+      <c r="K96" s="66"/>
+      <c r="L96" s="66"/>
+      <c r="M96" s="66"/>
+      <c r="N96" s="66"/>
+      <c r="O96" s="66"/>
+      <c r="P96" s="66"/>
+      <c r="Q96" s="66"/>
+      <c r="R96" s="66"/>
+      <c r="S96" s="66"/>
+      <c r="T96" s="66"/>
+      <c r="U96" s="66"/>
+      <c r="V96" s="67"/>
+    </row>
+    <row r="97" spans="3:22" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C97" s="26"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -3680,11 +3726,11 @@
     </row>
     <row r="98" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C98" s="26"/>
-      <c r="D98" s="99" t="s">
+      <c r="D98" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="99"/>
-      <c r="F98" s="95"/>
+      <c r="E98" s="97"/>
+      <c r="F98" s="93"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="6"/>
@@ -3706,7 +3752,7 @@
       <c r="C99" s="26"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="95"/>
+      <c r="F99" s="93"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -3722,33 +3768,33 @@
       <c r="S99" s="4"/>
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
-      <c r="V99" s="93"/>
+      <c r="V99" s="91"/>
     </row>
     <row r="100" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C100" s="26"/>
-      <c r="D100" s="99" t="s">
+      <c r="D100" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="99"/>
-      <c r="F100" s="95"/>
-      <c r="G100" s="71"/>
-      <c r="H100" s="71"/>
-      <c r="I100" s="71"/>
-      <c r="J100" s="71"/>
-      <c r="K100" s="71"/>
-      <c r="L100" s="71"/>
-      <c r="M100" s="72" t="s">
+      <c r="E100" s="97"/>
+      <c r="F100" s="93"/>
+      <c r="G100" s="69"/>
+      <c r="H100" s="69"/>
+      <c r="I100" s="69"/>
+      <c r="J100" s="69"/>
+      <c r="K100" s="69"/>
+      <c r="L100" s="69"/>
+      <c r="M100" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="N100" s="73"/>
-      <c r="O100" s="71"/>
-      <c r="P100" s="71"/>
-      <c r="Q100" s="72"/>
-      <c r="R100" s="72"/>
-      <c r="S100" s="72"/>
-      <c r="T100" s="72"/>
-      <c r="U100" s="72"/>
-      <c r="V100" s="94"/>
+      <c r="N100" s="71"/>
+      <c r="O100" s="69"/>
+      <c r="P100" s="69"/>
+      <c r="Q100" s="70"/>
+      <c r="R100" s="70"/>
+      <c r="S100" s="70"/>
+      <c r="T100" s="70"/>
+      <c r="U100" s="70"/>
+      <c r="V100" s="92"/>
     </row>
     <row r="101" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C101" s="26"/>
@@ -3781,15 +3827,15 @@
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="19"/>
-      <c r="K102" s="100" t="s">
+      <c r="K102" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="L102" s="101"/>
-      <c r="M102" s="102"/>
-      <c r="N102" s="103" t="s">
+      <c r="L102" s="99"/>
+      <c r="M102" s="100"/>
+      <c r="N102" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="O102" s="104"/>
+      <c r="O102" s="102"/>
       <c r="P102" s="20"/>
       <c r="Q102" s="21"/>
       <c r="R102" s="4"/>
@@ -3806,15 +3852,15 @@
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
-      <c r="J103" s="39" t="s">
+      <c r="J103" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="K103" s="105" t="s">
+      <c r="K103" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="L103" s="105"/>
-      <c r="M103" s="105"/>
-      <c r="N103" s="60" t="s">
+      <c r="L103" s="103"/>
+      <c r="M103" s="103"/>
+      <c r="N103" s="58" t="s">
         <v>16</v>
       </c>
       <c r="O103" s="28">
@@ -3838,25 +3884,25 @@
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
-      <c r="J104" s="56" t="s">
+      <c r="J104" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="K104" s="108" t="s">
+      <c r="K104" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="L104" s="109"/>
-      <c r="M104" s="110"/>
-      <c r="N104" s="65" t="s">
+      <c r="L104" s="107"/>
+      <c r="M104" s="108"/>
+      <c r="N104" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="O104" s="57">
+      <c r="O104" s="55">
         <v>2</v>
       </c>
-      <c r="P104" s="117" t="s">
+      <c r="P104" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="Q104" s="118"/>
-      <c r="R104" s="74"/>
+      <c r="Q104" s="113"/>
+      <c r="R104" s="72"/>
       <c r="S104" s="4"/>
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
@@ -3870,15 +3916,15 @@
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
-      <c r="J105" s="40" t="s">
+      <c r="J105" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K105" s="106" t="s">
+      <c r="K105" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="L105" s="106"/>
-      <c r="M105" s="106"/>
-      <c r="N105" s="61" t="s">
+      <c r="L105" s="104"/>
+      <c r="M105" s="104"/>
+      <c r="N105" s="59" t="s">
         <v>22</v>
       </c>
       <c r="O105" s="29">
@@ -3971,15 +4017,15 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="19"/>
-      <c r="K109" s="100" t="s">
+      <c r="K109" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="L109" s="101"/>
-      <c r="M109" s="102"/>
-      <c r="N109" s="103" t="s">
+      <c r="L109" s="99"/>
+      <c r="M109" s="100"/>
+      <c r="N109" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="O109" s="104"/>
+      <c r="O109" s="102"/>
       <c r="P109" s="20"/>
       <c r="Q109" s="21"/>
       <c r="R109" s="4"/>
@@ -3996,15 +4042,15 @@
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
-      <c r="J110" s="39" t="s">
+      <c r="J110" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="K110" s="105" t="s">
+      <c r="K110" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="L110" s="105"/>
-      <c r="M110" s="105"/>
-      <c r="N110" s="52" t="s">
+      <c r="L110" s="103"/>
+      <c r="M110" s="103"/>
+      <c r="N110" s="50" t="s">
         <v>16</v>
       </c>
       <c r="O110" s="28">
@@ -4028,25 +4074,25 @@
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
-      <c r="J111" s="66" t="s">
+      <c r="J111" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K111" s="108" t="s">
+      <c r="K111" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="L111" s="109"/>
-      <c r="M111" s="110"/>
-      <c r="N111" s="59" t="s">
+      <c r="L111" s="107"/>
+      <c r="M111" s="108"/>
+      <c r="N111" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="O111" s="57">
+      <c r="O111" s="55">
         <v>2</v>
       </c>
-      <c r="P111" s="117" t="s">
+      <c r="P111" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Q111" s="118"/>
-      <c r="R111" s="75"/>
+      <c r="Q111" s="113"/>
+      <c r="R111" s="73"/>
       <c r="S111" s="4"/>
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
@@ -4060,15 +4106,15 @@
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
-      <c r="J112" s="40" t="s">
+      <c r="J112" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K112" s="106" t="s">
+      <c r="K112" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="L112" s="106"/>
-      <c r="M112" s="106"/>
-      <c r="N112" s="54" t="s">
+      <c r="L112" s="104"/>
+      <c r="M112" s="104"/>
+      <c r="N112" s="52" t="s">
         <v>22</v>
       </c>
       <c r="O112" s="29">
@@ -4084,7 +4130,7 @@
       <c r="U112" s="4"/>
       <c r="V112" s="15"/>
     </row>
-    <row r="113" spans="3:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C113" s="26"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -4106,104 +4152,105 @@
       <c r="U113" s="4"/>
       <c r="V113" s="15"/>
     </row>
-    <row r="114" spans="3:22" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:22" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C114" s="25"/>
-      <c r="D114" s="76"/>
-      <c r="E114" s="76"/>
-      <c r="F114" s="76"/>
-      <c r="G114" s="76"/>
-      <c r="H114" s="76"/>
-      <c r="I114" s="76"/>
-      <c r="J114" s="76"/>
-      <c r="K114" s="76"/>
-      <c r="L114" s="76"/>
-      <c r="M114" s="76"/>
-      <c r="N114" s="76"/>
-      <c r="O114" s="76"/>
-      <c r="P114" s="76"/>
-      <c r="Q114" s="76"/>
-      <c r="R114" s="76"/>
-      <c r="S114" s="76"/>
-      <c r="T114" s="76"/>
-      <c r="U114" s="76"/>
+      <c r="D114" s="74"/>
+      <c r="E114" s="74"/>
+      <c r="F114" s="74"/>
+      <c r="G114" s="74"/>
+      <c r="H114" s="74"/>
+      <c r="I114" s="74"/>
+      <c r="J114" s="74"/>
+      <c r="K114" s="74"/>
+      <c r="L114" s="74"/>
+      <c r="M114" s="74"/>
+      <c r="N114" s="74"/>
+      <c r="O114" s="74"/>
+      <c r="P114" s="74"/>
+      <c r="Q114" s="74"/>
+      <c r="R114" s="74"/>
+      <c r="S114" s="74"/>
+      <c r="T114" s="74"/>
+      <c r="U114" s="74"/>
       <c r="V114" s="18"/>
     </row>
+    <row r="115" spans="3:22" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="3:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="D116" s="38" t="s">
+      <c r="D116" s="36" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="117" spans="3:22" ht="21" x14ac:dyDescent="0.3">
-      <c r="D117" s="111" t="s">
+      <c r="D117" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="E117" s="111"/>
-      <c r="F117" s="111"/>
-      <c r="G117" s="111"/>
-      <c r="H117" s="111"/>
-      <c r="I117" s="111"/>
-      <c r="J117" s="111"/>
-      <c r="K117" s="111"/>
-      <c r="L117" s="111"/>
-      <c r="M117" s="111"/>
-      <c r="N117" s="111"/>
-      <c r="O117" s="111"/>
-      <c r="P117" s="111"/>
-      <c r="Q117" s="111"/>
-      <c r="R117" s="111"/>
-      <c r="S117" s="111"/>
-      <c r="T117" s="111"/>
-      <c r="U117" s="111"/>
-      <c r="V117" s="111"/>
+      <c r="E117" s="109"/>
+      <c r="F117" s="109"/>
+      <c r="G117" s="109"/>
+      <c r="H117" s="109"/>
+      <c r="I117" s="109"/>
+      <c r="J117" s="109"/>
+      <c r="K117" s="109"/>
+      <c r="L117" s="109"/>
+      <c r="M117" s="109"/>
+      <c r="N117" s="109"/>
+      <c r="O117" s="109"/>
+      <c r="P117" s="109"/>
+      <c r="Q117" s="109"/>
+      <c r="R117" s="109"/>
+      <c r="S117" s="109"/>
+      <c r="T117" s="109"/>
+      <c r="U117" s="109"/>
+      <c r="V117" s="109"/>
     </row>
     <row r="118" spans="3:22" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D118" s="122" t="s">
+      <c r="D118" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="E118" s="122"/>
-      <c r="F118" s="122"/>
-      <c r="G118" s="122"/>
-      <c r="H118" s="122"/>
-      <c r="I118" s="122"/>
-      <c r="J118" s="122"/>
-      <c r="K118" s="122"/>
-      <c r="L118" s="122"/>
-      <c r="M118" s="122"/>
-      <c r="N118" s="122"/>
-      <c r="O118" s="122"/>
-      <c r="P118" s="122"/>
-      <c r="Q118" s="122"/>
-      <c r="R118" s="122"/>
-      <c r="S118" s="122"/>
-      <c r="T118" s="122"/>
-      <c r="U118" s="122"/>
-      <c r="V118" s="122"/>
+      <c r="E118" s="117"/>
+      <c r="F118" s="117"/>
+      <c r="G118" s="117"/>
+      <c r="H118" s="117"/>
+      <c r="I118" s="117"/>
+      <c r="J118" s="117"/>
+      <c r="K118" s="117"/>
+      <c r="L118" s="117"/>
+      <c r="M118" s="117"/>
+      <c r="N118" s="117"/>
+      <c r="O118" s="117"/>
+      <c r="P118" s="117"/>
+      <c r="Q118" s="117"/>
+      <c r="R118" s="117"/>
+      <c r="S118" s="117"/>
+      <c r="T118" s="117"/>
+      <c r="U118" s="117"/>
+      <c r="V118" s="117"/>
     </row>
     <row r="119" spans="3:22" ht="21" x14ac:dyDescent="0.3">
-      <c r="D119" s="111" t="s">
+      <c r="D119" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="E119" s="111"/>
-      <c r="F119" s="111"/>
-      <c r="G119" s="111"/>
-      <c r="H119" s="111"/>
-      <c r="I119" s="111"/>
-      <c r="J119" s="111"/>
-      <c r="K119" s="111"/>
-      <c r="L119" s="111"/>
-      <c r="M119" s="111"/>
-      <c r="N119" s="111"/>
-      <c r="O119" s="111"/>
-      <c r="P119" s="111"/>
-      <c r="Q119" s="111"/>
-      <c r="R119" s="111"/>
-      <c r="S119" s="111"/>
-      <c r="T119" s="111"/>
-      <c r="U119" s="111"/>
-      <c r="V119" s="111"/>
+      <c r="E119" s="109"/>
+      <c r="F119" s="109"/>
+      <c r="G119" s="109"/>
+      <c r="H119" s="109"/>
+      <c r="I119" s="109"/>
+      <c r="J119" s="109"/>
+      <c r="K119" s="109"/>
+      <c r="L119" s="109"/>
+      <c r="M119" s="109"/>
+      <c r="N119" s="109"/>
+      <c r="O119" s="109"/>
+      <c r="P119" s="109"/>
+      <c r="Q119" s="109"/>
+      <c r="R119" s="109"/>
+      <c r="S119" s="109"/>
+      <c r="T119" s="109"/>
+      <c r="U119" s="109"/>
+      <c r="V119" s="109"/>
     </row>
     <row r="120" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D120" s="37"/>
+      <c r="D120" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -4265,6 +4312,6 @@
     <mergeCell ref="K40:M40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="35" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>